--- a/datum_1_digit.xlsx
+++ b/datum_1_digit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5391" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5383" uniqueCount="45">
   <si>
     <t>code</t>
   </si>
@@ -506,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1683"/>
+  <dimension ref="A1:P1681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -68643,6 +68643,42 @@
       <c r="A1444" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1444">
+        <v>52.04431598901431</v>
+      </c>
+      <c r="C1444">
+        <v>56.34323461551698</v>
+      </c>
+      <c r="D1444">
+        <v>52.37033107591833</v>
+      </c>
+      <c r="E1444">
+        <v>49.9430423443698</v>
+      </c>
+      <c r="F1444">
+        <v>47.62945648730166</v>
+      </c>
+      <c r="G1444">
+        <v>48.46978489892359</v>
+      </c>
+      <c r="H1444">
+        <v>48.87541117991986</v>
+      </c>
+      <c r="I1444">
+        <v>49.17026966884021</v>
+      </c>
+      <c r="J1444">
+        <v>51.32351085291235</v>
+      </c>
+      <c r="K1444">
+        <v>48.49380157510344</v>
+      </c>
+      <c r="L1444">
+        <v>48.78116287151622</v>
+      </c>
+      <c r="M1444">
+        <v>52.38093533782144</v>
+      </c>
       <c r="N1444" t="s">
         <v>26</v>
       </c>
@@ -69457,6 +69493,42 @@
       <c r="A1461" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1461">
+        <v>73.3336837999467</v>
+      </c>
+      <c r="C1461">
+        <v>73.29435759551788</v>
+      </c>
+      <c r="D1461">
+        <v>77.3446307547684</v>
+      </c>
+      <c r="E1461">
+        <v>82.63708269892498</v>
+      </c>
+      <c r="F1461">
+        <v>85.65618696022567</v>
+      </c>
+      <c r="G1461">
+        <v>88.65886722423977</v>
+      </c>
+      <c r="H1461">
+        <v>90.14737565243273</v>
+      </c>
+      <c r="I1461">
+        <v>89.20644321275554</v>
+      </c>
+      <c r="J1461">
+        <v>84.32701995008949</v>
+      </c>
+      <c r="K1461">
+        <v>83.2259583247326</v>
+      </c>
+      <c r="L1461">
+        <v>84.72877261595694</v>
+      </c>
+      <c r="M1461">
+        <v>83.47291956874292</v>
+      </c>
       <c r="N1461" t="s">
         <v>27</v>
       </c>
@@ -73671,6 +73743,42 @@
       <c r="A1546" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1546">
+        <v>25.02951624753113</v>
+      </c>
+      <c r="C1546">
+        <v>24.12669089692304</v>
+      </c>
+      <c r="D1546">
+        <v>27.07214964433798</v>
+      </c>
+      <c r="E1546">
+        <v>26.57445956821189</v>
+      </c>
+      <c r="F1546">
+        <v>27.83869241118816</v>
+      </c>
+      <c r="G1546">
+        <v>28.31662124989597</v>
+      </c>
+      <c r="H1546">
+        <v>28.17067298442145</v>
+      </c>
+      <c r="I1546">
+        <v>27.83728585353721</v>
+      </c>
+      <c r="J1546">
+        <v>27.68786684386823</v>
+      </c>
+      <c r="K1546">
+        <v>31.64111939353676</v>
+      </c>
+      <c r="L1546">
+        <v>32.72486617198827</v>
+      </c>
+      <c r="M1546">
+        <v>32.42288392219767</v>
+      </c>
       <c r="N1546" t="s">
         <v>32</v>
       </c>
@@ -73685,6 +73793,42 @@
       <c r="A1547" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B1547">
+        <v>16.66476481670135</v>
+      </c>
+      <c r="C1547">
+        <v>18.22382311453014</v>
+      </c>
+      <c r="D1547">
+        <v>16.88827916083515</v>
+      </c>
+      <c r="E1547">
+        <v>15.82875168750698</v>
+      </c>
+      <c r="F1547">
+        <v>15.80730291637436</v>
+      </c>
+      <c r="G1547">
+        <v>16.1672416433745</v>
+      </c>
+      <c r="H1547">
+        <v>16.1599804647586</v>
+      </c>
+      <c r="I1547">
+        <v>15.55004888894314</v>
+      </c>
+      <c r="J1547">
+        <v>16.99531324135904</v>
+      </c>
+      <c r="K1547">
+        <v>15.21833625628464</v>
+      </c>
+      <c r="L1547">
+        <v>15.43433732427938</v>
+      </c>
+      <c r="M1547">
+        <v>13.66573169001388</v>
+      </c>
       <c r="N1547" t="s">
         <v>32</v>
       </c>
@@ -73699,6 +73843,42 @@
       <c r="A1548" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B1548">
+        <v>20.49587194932109</v>
+      </c>
+      <c r="C1548">
+        <v>21.29060633047635</v>
+      </c>
+      <c r="D1548">
+        <v>22.86653134198657</v>
+      </c>
+      <c r="E1548">
+        <v>22.34676368332033</v>
+      </c>
+      <c r="F1548">
+        <v>22.68174721917829</v>
+      </c>
+      <c r="G1548">
+        <v>22.67136220637227</v>
+      </c>
+      <c r="H1548">
+        <v>23.31020982470621</v>
+      </c>
+      <c r="I1548">
+        <v>23.33674093895623</v>
+      </c>
+      <c r="J1548">
+        <v>23.92213567144735</v>
+      </c>
+      <c r="K1548">
+        <v>23.88096442364757</v>
+      </c>
+      <c r="L1548">
+        <v>24.25336221930771</v>
+      </c>
+      <c r="M1548">
+        <v>23.81431447332309</v>
+      </c>
       <c r="N1548" t="s">
         <v>32</v>
       </c>
@@ -73713,6 +73893,42 @@
       <c r="A1549" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B1549">
+        <v>45.73182286968229</v>
+      </c>
+      <c r="C1549">
+        <v>37.29903317298621</v>
+      </c>
+      <c r="D1549">
+        <v>21.80318186428503</v>
+      </c>
+      <c r="E1549">
+        <v>23.00432822770527</v>
+      </c>
+      <c r="F1549">
+        <v>20.84672871271654</v>
+      </c>
+      <c r="G1549">
+        <v>17.240789282467</v>
+      </c>
+      <c r="H1549">
+        <v>17.36280937759511</v>
+      </c>
+      <c r="I1549">
+        <v>16.0911232628978</v>
+      </c>
+      <c r="J1549">
+        <v>17.68654922815378</v>
+      </c>
+      <c r="K1549">
+        <v>20.54513862585418</v>
+      </c>
+      <c r="L1549">
+        <v>19.81333718968709</v>
+      </c>
+      <c r="M1549">
+        <v>18.18258028959935</v>
+      </c>
       <c r="N1549" t="s">
         <v>32</v>
       </c>
@@ -73727,6 +73943,42 @@
       <c r="A1550" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B1550">
+        <v>19.02957681150217</v>
+      </c>
+      <c r="C1550">
+        <v>17.79817654438335</v>
+      </c>
+      <c r="D1550">
+        <v>22.22912321854865</v>
+      </c>
+      <c r="E1550">
+        <v>21.66495808479729</v>
+      </c>
+      <c r="F1550">
+        <v>21.73683996315177</v>
+      </c>
+      <c r="G1550">
+        <v>22.356457878212</v>
+      </c>
+      <c r="H1550">
+        <v>25.09567740021239</v>
+      </c>
+      <c r="I1550">
+        <v>27.97409525338691</v>
+      </c>
+      <c r="J1550">
+        <v>32.78986764446155</v>
+      </c>
+      <c r="K1550">
+        <v>31.77833746963332</v>
+      </c>
+      <c r="L1550">
+        <v>33.44744259829582</v>
+      </c>
+      <c r="M1550">
+        <v>31.97322210920174</v>
+      </c>
       <c r="N1550" t="s">
         <v>32</v>
       </c>
@@ -73741,6 +73993,42 @@
       <c r="A1551" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B1551">
+        <v>19.65781464497382</v>
+      </c>
+      <c r="C1551">
+        <v>19.16775638314818</v>
+      </c>
+      <c r="D1551">
+        <v>19.2514810652301</v>
+      </c>
+      <c r="E1551">
+        <v>20.61857297910124</v>
+      </c>
+      <c r="F1551">
+        <v>20.90831226082749</v>
+      </c>
+      <c r="G1551">
+        <v>21.46989628637359</v>
+      </c>
+      <c r="H1551">
+        <v>21.9297892320996</v>
+      </c>
+      <c r="I1551">
+        <v>22.04063105811091</v>
+      </c>
+      <c r="J1551">
+        <v>23.1799991515506</v>
+      </c>
+      <c r="K1551">
+        <v>22.97551835831309</v>
+      </c>
+      <c r="L1551">
+        <v>22.96701834210062</v>
+      </c>
+      <c r="M1551">
+        <v>22.65103401396565</v>
+      </c>
       <c r="N1551" t="s">
         <v>32</v>
       </c>
@@ -73755,6 +74043,42 @@
       <c r="A1552" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B1552">
+        <v>36.46103303362872</v>
+      </c>
+      <c r="C1552">
+        <v>36.63781992270138</v>
+      </c>
+      <c r="D1552">
+        <v>38.08392901792583</v>
+      </c>
+      <c r="E1552">
+        <v>37.28050680927198</v>
+      </c>
+      <c r="F1552">
+        <v>38.26124691598298</v>
+      </c>
+      <c r="G1552">
+        <v>38.71510835011792</v>
+      </c>
+      <c r="H1552">
+        <v>39.59159646214326</v>
+      </c>
+      <c r="I1552">
+        <v>40.26177731708594</v>
+      </c>
+      <c r="J1552">
+        <v>40.35936428673122</v>
+      </c>
+      <c r="K1552">
+        <v>40.80422544573068</v>
+      </c>
+      <c r="L1552">
+        <v>41.62583732921758</v>
+      </c>
+      <c r="M1552">
+        <v>41.78915161999496</v>
+      </c>
       <c r="N1552" t="s">
         <v>32</v>
       </c>
@@ -73769,6 +74093,42 @@
       <c r="A1553" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B1553">
+        <v>19.71296264956707</v>
+      </c>
+      <c r="C1553">
+        <v>19.67077543755123</v>
+      </c>
+      <c r="D1553">
+        <v>19.18059775172953</v>
+      </c>
+      <c r="E1553">
+        <v>21.46821486578384</v>
+      </c>
+      <c r="F1553">
+        <v>20.22485296548547</v>
+      </c>
+      <c r="G1553">
+        <v>20.0177279276947</v>
+      </c>
+      <c r="H1553">
+        <v>18.30318761684256</v>
+      </c>
+      <c r="I1553">
+        <v>17.49196085560346</v>
+      </c>
+      <c r="J1553">
+        <v>17.35858136662384</v>
+      </c>
+      <c r="K1553">
+        <v>18.91364200463958</v>
+      </c>
+      <c r="L1553">
+        <v>20.17424837340275</v>
+      </c>
+      <c r="M1553">
+        <v>19.94845223597749</v>
+      </c>
       <c r="N1553" t="s">
         <v>32</v>
       </c>
@@ -73783,6 +74143,42 @@
       <c r="A1554" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B1554">
+        <v>18.16211745093271</v>
+      </c>
+      <c r="C1554">
+        <v>17.53214202571349</v>
+      </c>
+      <c r="D1554">
+        <v>17.60125821024844</v>
+      </c>
+      <c r="E1554">
+        <v>19.18863378585511</v>
+      </c>
+      <c r="F1554">
+        <v>17.71922293878711</v>
+      </c>
+      <c r="G1554">
+        <v>18.73750295564219</v>
+      </c>
+      <c r="H1554">
+        <v>19.80002244236897</v>
+      </c>
+      <c r="I1554">
+        <v>21.5080195980089</v>
+      </c>
+      <c r="J1554">
+        <v>21.80363017826827</v>
+      </c>
+      <c r="K1554">
+        <v>23.41988229599274</v>
+      </c>
+      <c r="L1554">
+        <v>23.79094770954567</v>
+      </c>
+      <c r="M1554">
+        <v>22.81704771918001</v>
+      </c>
       <c r="N1554" t="s">
         <v>32</v>
       </c>
@@ -73797,6 +74193,42 @@
       <c r="A1555" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B1555">
+        <v>9.969051380229722</v>
+      </c>
+      <c r="C1555">
+        <v>11.06391891028108</v>
+      </c>
+      <c r="D1555">
+        <v>17.22676573907792</v>
+      </c>
+      <c r="E1555">
+        <v>13.08067395771853</v>
+      </c>
+      <c r="F1555">
+        <v>15.10089795292082</v>
+      </c>
+      <c r="G1555">
+        <v>17.00725339459162</v>
+      </c>
+      <c r="H1555">
+        <v>20.45976144759793</v>
+      </c>
+      <c r="I1555">
+        <v>24.91781444363651</v>
+      </c>
+      <c r="J1555">
+        <v>21.28617894064197</v>
+      </c>
+      <c r="K1555">
+        <v>21.88425328738627</v>
+      </c>
+      <c r="L1555">
+        <v>21.94681766827669</v>
+      </c>
+      <c r="M1555">
+        <v>22.32973226030317</v>
+      </c>
       <c r="N1555" t="s">
         <v>32</v>
       </c>
@@ -73811,6 +74243,42 @@
       <c r="A1556" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B1556">
+        <v>11.95003728068652</v>
+      </c>
+      <c r="C1556">
+        <v>9.471536289116601</v>
+      </c>
+      <c r="D1556">
+        <v>10.99376247763447</v>
+      </c>
+      <c r="E1556">
+        <v>11.86632046255358</v>
+      </c>
+      <c r="F1556">
+        <v>12.8403614745735</v>
+      </c>
+      <c r="G1556">
+        <v>13.61762322597522</v>
+      </c>
+      <c r="H1556">
+        <v>13.21949677634766</v>
+      </c>
+      <c r="I1556">
+        <v>14.19652301788072</v>
+      </c>
+      <c r="J1556">
+        <v>15.20289750368551</v>
+      </c>
+      <c r="K1556">
+        <v>15.93384555587737</v>
+      </c>
+      <c r="L1556">
+        <v>15.29707116984616</v>
+      </c>
+      <c r="M1556">
+        <v>15.95585917833653</v>
+      </c>
       <c r="N1556" t="s">
         <v>32</v>
       </c>
@@ -73825,6 +74293,42 @@
       <c r="A1557" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B1557">
+        <v>9.765182965977512</v>
+      </c>
+      <c r="C1557">
+        <v>8.866593821790451</v>
+      </c>
+      <c r="D1557">
+        <v>10.29240820781604</v>
+      </c>
+      <c r="E1557">
+        <v>10.6303125107734</v>
+      </c>
+      <c r="F1557">
+        <v>11.39527158616215</v>
+      </c>
+      <c r="G1557">
+        <v>14.2704212417919</v>
+      </c>
+      <c r="H1557">
+        <v>14.41479071052472</v>
+      </c>
+      <c r="I1557">
+        <v>14.54281513249567</v>
+      </c>
+      <c r="J1557">
+        <v>15.61234058040532</v>
+      </c>
+      <c r="K1557">
+        <v>18.56320184404474</v>
+      </c>
+      <c r="L1557">
+        <v>19.17998996098686</v>
+      </c>
+      <c r="M1557">
+        <v>20.88796273728434</v>
+      </c>
       <c r="N1557" t="s">
         <v>32</v>
       </c>
@@ -73839,6 +74343,42 @@
       <c r="A1558" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B1558">
+        <v>25.07318541944423</v>
+      </c>
+      <c r="C1558">
+        <v>25.36019926548854</v>
+      </c>
+      <c r="D1558">
+        <v>28.13207075329085</v>
+      </c>
+      <c r="E1558">
+        <v>28.52749004816627</v>
+      </c>
+      <c r="F1558">
+        <v>28.91577499706947</v>
+      </c>
+      <c r="G1558">
+        <v>29.18544709180959</v>
+      </c>
+      <c r="H1558">
+        <v>29.02675307056782</v>
+      </c>
+      <c r="I1558">
+        <v>29.3749713476392</v>
+      </c>
+      <c r="J1558">
+        <v>30.31258251907911</v>
+      </c>
+      <c r="K1558">
+        <v>29.21636629784736</v>
+      </c>
+      <c r="L1558">
+        <v>30.4482397050237</v>
+      </c>
+      <c r="M1558">
+        <v>27.63573856355036</v>
+      </c>
       <c r="N1558" t="s">
         <v>32</v>
       </c>
@@ -73853,6 +74393,42 @@
       <c r="A1559" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B1559">
+        <v>20.90675107082274</v>
+      </c>
+      <c r="C1559">
+        <v>20.71575707925989</v>
+      </c>
+      <c r="D1559">
+        <v>20.40710626939739</v>
+      </c>
+      <c r="E1559">
+        <v>20.23495514891757</v>
+      </c>
+      <c r="F1559">
+        <v>21.06967093080309</v>
+      </c>
+      <c r="G1559">
+        <v>21.48082474974749</v>
+      </c>
+      <c r="H1559">
+        <v>22.20432368341825</v>
+      </c>
+      <c r="I1559">
+        <v>23.58155027336543</v>
+      </c>
+      <c r="J1559">
+        <v>23.74957737895269</v>
+      </c>
+      <c r="K1559">
+        <v>27.32188918223144</v>
+      </c>
+      <c r="L1559">
+        <v>30.06760800454058</v>
+      </c>
+      <c r="M1559">
+        <v>26.46577918784538</v>
+      </c>
       <c r="N1559" t="s">
         <v>32</v>
       </c>
@@ -73867,6 +74443,42 @@
       <c r="A1560" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B1560">
+        <v>19.18063279854013</v>
+      </c>
+      <c r="C1560">
+        <v>18.98204810691102</v>
+      </c>
+      <c r="D1560">
+        <v>20.85243871363051</v>
+      </c>
+      <c r="E1560">
+        <v>22.357500162335</v>
+      </c>
+      <c r="F1560">
+        <v>21.69769676565761</v>
+      </c>
+      <c r="G1560">
+        <v>23.59214740531584</v>
+      </c>
+      <c r="H1560">
+        <v>23.51268312416988</v>
+      </c>
+      <c r="I1560">
+        <v>26.28173441607649</v>
+      </c>
+      <c r="J1560">
+        <v>27.63628249405519</v>
+      </c>
+      <c r="K1560">
+        <v>31.32357015596147</v>
+      </c>
+      <c r="L1560">
+        <v>27.22994537555608</v>
+      </c>
+      <c r="M1560">
+        <v>26.66158148202551</v>
+      </c>
       <c r="N1560" t="s">
         <v>32</v>
       </c>
@@ -73881,6 +74493,42 @@
       <c r="A1561" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B1561">
+        <v>28.4801170487534</v>
+      </c>
+      <c r="C1561">
+        <v>23.01029593124787</v>
+      </c>
+      <c r="D1561">
+        <v>24.96299267592942</v>
+      </c>
+      <c r="E1561">
+        <v>25.81349583007936</v>
+      </c>
+      <c r="F1561">
+        <v>28.72297676085838</v>
+      </c>
+      <c r="G1561">
+        <v>29.06010436185256</v>
+      </c>
+      <c r="H1561">
+        <v>28.16348731521644</v>
+      </c>
+      <c r="I1561">
+        <v>32.40868886164134</v>
+      </c>
+      <c r="J1561">
+        <v>34.99200204685764</v>
+      </c>
+      <c r="K1561">
+        <v>36.69863608700187</v>
+      </c>
+      <c r="L1561">
+        <v>35.1324490539725</v>
+      </c>
+      <c r="M1561">
+        <v>21.62180470009803</v>
+      </c>
       <c r="N1561" t="s">
         <v>32</v>
       </c>
@@ -73895,6 +74543,42 @@
       <c r="A1562" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B1562">
+        <v>42.37290478348547</v>
+      </c>
+      <c r="C1562">
+        <v>40.03424144493998</v>
+      </c>
+      <c r="D1562">
+        <v>42.17794446409566</v>
+      </c>
+      <c r="E1562">
+        <v>40.27793890877508</v>
+      </c>
+      <c r="F1562">
+        <v>41.35863674384967</v>
+      </c>
+      <c r="G1562">
+        <v>44.93780512978727</v>
+      </c>
+      <c r="H1562">
+        <v>44.46636401876106</v>
+      </c>
+      <c r="I1562">
+        <v>47.82866490399101</v>
+      </c>
+      <c r="J1562">
+        <v>45.83680129345657</v>
+      </c>
+      <c r="K1562">
+        <v>50.6348167975504</v>
+      </c>
+      <c r="L1562">
+        <v>51.52273110381651</v>
+      </c>
+      <c r="M1562">
+        <v>50.80536492721689</v>
+      </c>
       <c r="N1562" t="s">
         <v>32</v>
       </c>
@@ -75609,6 +76293,42 @@
       <c r="A1597" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1597">
+        <v>28.72960515901499</v>
+      </c>
+      <c r="C1597">
+        <v>27.09327030351085</v>
+      </c>
+      <c r="D1597">
+        <v>30.18786720994335</v>
+      </c>
+      <c r="E1597">
+        <v>29.85591105736917</v>
+      </c>
+      <c r="F1597">
+        <v>31.31808826587606</v>
+      </c>
+      <c r="G1597">
+        <v>32.37837846336343</v>
+      </c>
+      <c r="H1597">
+        <v>32.80440441935657</v>
+      </c>
+      <c r="I1597">
+        <v>32.80039802209719</v>
+      </c>
+      <c r="J1597">
+        <v>32.56021576432506</v>
+      </c>
+      <c r="K1597">
+        <v>37.29134288467215</v>
+      </c>
+      <c r="L1597">
+        <v>38.51347658033794</v>
+      </c>
+      <c r="M1597">
+        <v>37.3733749603998</v>
+      </c>
       <c r="N1597" t="s">
         <v>35</v>
       </c>
@@ -75623,6 +76343,42 @@
       <c r="A1598" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B1598">
+        <v>21.58434484638242</v>
+      </c>
+      <c r="C1598">
+        <v>22.15224338150671</v>
+      </c>
+      <c r="D1598">
+        <v>20.8454328468027</v>
+      </c>
+      <c r="E1598">
+        <v>18.52821829082041</v>
+      </c>
+      <c r="F1598">
+        <v>21.50082973691033</v>
+      </c>
+      <c r="G1598">
+        <v>23.91942784620986</v>
+      </c>
+      <c r="H1598">
+        <v>26.54735640334101</v>
+      </c>
+      <c r="I1598">
+        <v>28.02797845842447</v>
+      </c>
+      <c r="J1598">
+        <v>30.23342998269728</v>
+      </c>
+      <c r="K1598">
+        <v>29.8169072856956</v>
+      </c>
+      <c r="L1598">
+        <v>28.9169453317055</v>
+      </c>
+      <c r="M1598">
+        <v>28.70940884130128</v>
+      </c>
       <c r="N1598" t="s">
         <v>35</v>
       </c>
@@ -75637,6 +76393,42 @@
       <c r="A1599" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B1599">
+        <v>22.47725907023463</v>
+      </c>
+      <c r="C1599">
+        <v>23.1389998482524</v>
+      </c>
+      <c r="D1599">
+        <v>24.98038112165953</v>
+      </c>
+      <c r="E1599">
+        <v>24.36767388104103</v>
+      </c>
+      <c r="F1599">
+        <v>24.85492086241877</v>
+      </c>
+      <c r="G1599">
+        <v>25.06154247759074</v>
+      </c>
+      <c r="H1599">
+        <v>25.63960647199012</v>
+      </c>
+      <c r="I1599">
+        <v>25.94399032902139</v>
+      </c>
+      <c r="J1599">
+        <v>26.21857874135031</v>
+      </c>
+      <c r="K1599">
+        <v>26.6333398495308</v>
+      </c>
+      <c r="L1599">
+        <v>26.86773422623349</v>
+      </c>
+      <c r="M1599">
+        <v>26.30513902463857</v>
+      </c>
       <c r="N1599" t="s">
         <v>35</v>
       </c>
@@ -75651,6 +76443,42 @@
       <c r="A1600" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B1600">
+        <v>47.901354750175</v>
+      </c>
+      <c r="C1600">
+        <v>41.01645850626112</v>
+      </c>
+      <c r="D1600">
+        <v>26.3412238610025</v>
+      </c>
+      <c r="E1600">
+        <v>27.4352827914829</v>
+      </c>
+      <c r="F1600">
+        <v>27.58651986808698</v>
+      </c>
+      <c r="G1600">
+        <v>25.66938449999031</v>
+      </c>
+      <c r="H1600">
+        <v>25.78010549999573</v>
+      </c>
+      <c r="I1600">
+        <v>24.50247504141049</v>
+      </c>
+      <c r="J1600">
+        <v>26.13504496434901</v>
+      </c>
+      <c r="K1600">
+        <v>28.84670252770765</v>
+      </c>
+      <c r="L1600">
+        <v>27.84450963936288</v>
+      </c>
+      <c r="M1600">
+        <v>26.57331991953725</v>
+      </c>
       <c r="N1600" t="s">
         <v>35</v>
       </c>
@@ -75665,6 +76493,42 @@
       <c r="A1601" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B1601">
+        <v>20.32399682700788</v>
+      </c>
+      <c r="C1601">
+        <v>19.45719587404529</v>
+      </c>
+      <c r="D1601">
+        <v>24.76874850994218</v>
+      </c>
+      <c r="E1601">
+        <v>25.3040860779986</v>
+      </c>
+      <c r="F1601">
+        <v>24.8513282149756</v>
+      </c>
+      <c r="G1601">
+        <v>26.68043841203626</v>
+      </c>
+      <c r="H1601">
+        <v>30.32564576486865</v>
+      </c>
+      <c r="I1601">
+        <v>34.41638068698205</v>
+      </c>
+      <c r="J1601">
+        <v>39.17217678868192</v>
+      </c>
+      <c r="K1601">
+        <v>39.84154827533801</v>
+      </c>
+      <c r="L1601">
+        <v>41.29712341163555</v>
+      </c>
+      <c r="M1601">
+        <v>37.63593259076318</v>
+      </c>
       <c r="N1601" t="s">
         <v>35</v>
       </c>
@@ -75679,6 +76543,42 @@
       <c r="A1602" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B1602">
+        <v>24.51547379402862</v>
+      </c>
+      <c r="C1602">
+        <v>24.01571481399475</v>
+      </c>
+      <c r="D1602">
+        <v>24.1805432346147</v>
+      </c>
+      <c r="E1602">
+        <v>25.68453662913615</v>
+      </c>
+      <c r="F1602">
+        <v>26.10430557555733</v>
+      </c>
+      <c r="G1602">
+        <v>26.69073975451066</v>
+      </c>
+      <c r="H1602">
+        <v>27.33234377358113</v>
+      </c>
+      <c r="I1602">
+        <v>27.9611880658325</v>
+      </c>
+      <c r="J1602">
+        <v>29.64579156655704</v>
+      </c>
+      <c r="K1602">
+        <v>30.32127982071448</v>
+      </c>
+      <c r="L1602">
+        <v>30.76617690558465</v>
+      </c>
+      <c r="M1602">
+        <v>30.29231442291926</v>
+      </c>
       <c r="N1602" t="s">
         <v>35</v>
       </c>
@@ -75693,6 +76593,42 @@
       <c r="A1603" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B1603">
+        <v>39.52700294115305</v>
+      </c>
+      <c r="C1603">
+        <v>39.35442802927362</v>
+      </c>
+      <c r="D1603">
+        <v>40.78136871686475</v>
+      </c>
+      <c r="E1603">
+        <v>40.36072521641197</v>
+      </c>
+      <c r="F1603">
+        <v>41.43632013515924</v>
+      </c>
+      <c r="G1603">
+        <v>41.8758747621133</v>
+      </c>
+      <c r="H1603">
+        <v>42.59854209606452</v>
+      </c>
+      <c r="I1603">
+        <v>43.36489742703811</v>
+      </c>
+      <c r="J1603">
+        <v>43.47327250274385</v>
+      </c>
+      <c r="K1603">
+        <v>44.29881569755692</v>
+      </c>
+      <c r="L1603">
+        <v>45.41446553752628</v>
+      </c>
+      <c r="M1603">
+        <v>45.60435576741854</v>
+      </c>
       <c r="N1603" t="s">
         <v>35</v>
       </c>
@@ -75707,6 +76643,42 @@
       <c r="A1604" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B1604">
+        <v>21.99889244744082</v>
+      </c>
+      <c r="C1604">
+        <v>21.70678536653552</v>
+      </c>
+      <c r="D1604">
+        <v>21.88415414357731</v>
+      </c>
+      <c r="E1604">
+        <v>23.90243709074548</v>
+      </c>
+      <c r="F1604">
+        <v>22.59274222836117</v>
+      </c>
+      <c r="G1604">
+        <v>23.0306436397101</v>
+      </c>
+      <c r="H1604">
+        <v>21.82471991887962</v>
+      </c>
+      <c r="I1604">
+        <v>21.8089272443235</v>
+      </c>
+      <c r="J1604">
+        <v>21.06601396677067</v>
+      </c>
+      <c r="K1604">
+        <v>24.01420967962385</v>
+      </c>
+      <c r="L1604">
+        <v>26.06367215589056</v>
+      </c>
+      <c r="M1604">
+        <v>25.66934491426716</v>
+      </c>
       <c r="N1604" t="s">
         <v>35</v>
       </c>
@@ -75721,6 +76693,42 @@
       <c r="A1605" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B1605">
+        <v>20.89264457276604</v>
+      </c>
+      <c r="C1605">
+        <v>20.209759152564</v>
+      </c>
+      <c r="D1605">
+        <v>20.36812537653876</v>
+      </c>
+      <c r="E1605">
+        <v>21.87614356836726</v>
+      </c>
+      <c r="F1605">
+        <v>20.69556172870202</v>
+      </c>
+      <c r="G1605">
+        <v>21.86380001344296</v>
+      </c>
+      <c r="H1605">
+        <v>23.00406448665741</v>
+      </c>
+      <c r="I1605">
+        <v>25.51685969519043</v>
+      </c>
+      <c r="J1605">
+        <v>26.07527579739369</v>
+      </c>
+      <c r="K1605">
+        <v>28.42788027165264</v>
+      </c>
+      <c r="L1605">
+        <v>29.04773103032027</v>
+      </c>
+      <c r="M1605">
+        <v>28.24359626688169</v>
+      </c>
       <c r="N1605" t="s">
         <v>35</v>
       </c>
@@ -75735,6 +76743,42 @@
       <c r="A1606" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B1606">
+        <v>19.71285077592634</v>
+      </c>
+      <c r="C1606">
+        <v>20.17072152628457</v>
+      </c>
+      <c r="D1606">
+        <v>25.2504387165777</v>
+      </c>
+      <c r="E1606">
+        <v>20.72201059316343</v>
+      </c>
+      <c r="F1606">
+        <v>25.91509864392662</v>
+      </c>
+      <c r="G1606">
+        <v>26.14712799566389</v>
+      </c>
+      <c r="H1606">
+        <v>30.88741404374803</v>
+      </c>
+      <c r="I1606">
+        <v>33.13427676119858</v>
+      </c>
+      <c r="J1606">
+        <v>30.2333654102454</v>
+      </c>
+      <c r="K1606">
+        <v>29.46403152708974</v>
+      </c>
+      <c r="L1606">
+        <v>27.15760682105635</v>
+      </c>
+      <c r="M1606">
+        <v>27.04862048313716</v>
+      </c>
       <c r="N1606" t="s">
         <v>35</v>
       </c>
@@ -75749,6 +76793,42 @@
       <c r="A1607" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B1607">
+        <v>16.30141209981549</v>
+      </c>
+      <c r="C1607">
+        <v>12.43273229637256</v>
+      </c>
+      <c r="D1607">
+        <v>13.82814617807655</v>
+      </c>
+      <c r="E1607">
+        <v>15.49507580116939</v>
+      </c>
+      <c r="F1607">
+        <v>17.89759405041454</v>
+      </c>
+      <c r="G1607">
+        <v>18.3300411284315</v>
+      </c>
+      <c r="H1607">
+        <v>18.91834918083975</v>
+      </c>
+      <c r="I1607">
+        <v>21.29751712409693</v>
+      </c>
+      <c r="J1607">
+        <v>22.21699602265988</v>
+      </c>
+      <c r="K1607">
+        <v>24.37100714137764</v>
+      </c>
+      <c r="L1607">
+        <v>23.38231299259368</v>
+      </c>
+      <c r="M1607">
+        <v>25.71705680349298</v>
+      </c>
       <c r="N1607" t="s">
         <v>35</v>
       </c>
@@ -75763,6 +76843,42 @@
       <c r="A1608" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B1608">
+        <v>12.16408711922227</v>
+      </c>
+      <c r="C1608">
+        <v>11.46991042830402</v>
+      </c>
+      <c r="D1608">
+        <v>13.01314626175678</v>
+      </c>
+      <c r="E1608">
+        <v>14.12705813798169</v>
+      </c>
+      <c r="F1608">
+        <v>14.4969303505122</v>
+      </c>
+      <c r="G1608">
+        <v>17.79352615108246</v>
+      </c>
+      <c r="H1608">
+        <v>18.14293526542572</v>
+      </c>
+      <c r="I1608">
+        <v>20.27219115481864</v>
+      </c>
+      <c r="J1608">
+        <v>23.10973005162181</v>
+      </c>
+      <c r="K1608">
+        <v>25.27456176712124</v>
+      </c>
+      <c r="L1608">
+        <v>25.58973067098331</v>
+      </c>
+      <c r="M1608">
+        <v>28.09363031745407</v>
+      </c>
       <c r="N1608" t="s">
         <v>35</v>
       </c>
@@ -75777,6 +76893,42 @@
       <c r="A1609" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B1609">
+        <v>30.25678355539896</v>
+      </c>
+      <c r="C1609">
+        <v>30.2504337333035</v>
+      </c>
+      <c r="D1609">
+        <v>32.81313461346503</v>
+      </c>
+      <c r="E1609">
+        <v>32.57953945839279</v>
+      </c>
+      <c r="F1609">
+        <v>32.42223549973983</v>
+      </c>
+      <c r="G1609">
+        <v>33.59478846547653</v>
+      </c>
+      <c r="H1609">
+        <v>33.43867130480341</v>
+      </c>
+      <c r="I1609">
+        <v>34.14291637921691</v>
+      </c>
+      <c r="J1609">
+        <v>35.66012522584286</v>
+      </c>
+      <c r="K1609">
+        <v>35.4212716554806</v>
+      </c>
+      <c r="L1609">
+        <v>35.71490774878039</v>
+      </c>
+      <c r="M1609">
+        <v>33.16153015874707</v>
+      </c>
       <c r="N1609" t="s">
         <v>35</v>
       </c>
@@ -75791,6 +76943,42 @@
       <c r="A1610" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B1610">
+        <v>25.0308059731572</v>
+      </c>
+      <c r="C1610">
+        <v>23.97357724523171</v>
+      </c>
+      <c r="D1610">
+        <v>24.36984519337509</v>
+      </c>
+      <c r="E1610">
+        <v>23.18919441796738</v>
+      </c>
+      <c r="F1610">
+        <v>23.90176795074048</v>
+      </c>
+      <c r="G1610">
+        <v>24.30909645609061</v>
+      </c>
+      <c r="H1610">
+        <v>24.95358603431244</v>
+      </c>
+      <c r="I1610">
+        <v>29.03476589745777</v>
+      </c>
+      <c r="J1610">
+        <v>28.20773023936037</v>
+      </c>
+      <c r="K1610">
+        <v>30.88542401194968</v>
+      </c>
+      <c r="L1610">
+        <v>34.06462712106651</v>
+      </c>
+      <c r="M1610">
+        <v>30.52647984204228</v>
+      </c>
       <c r="N1610" t="s">
         <v>35</v>
       </c>
@@ -75805,6 +76993,42 @@
       <c r="A1611" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B1611">
+        <v>21.71558519847425</v>
+      </c>
+      <c r="C1611">
+        <v>20.95386409992108</v>
+      </c>
+      <c r="D1611">
+        <v>23.63154604028027</v>
+      </c>
+      <c r="E1611">
+        <v>24.85173652044446</v>
+      </c>
+      <c r="F1611">
+        <v>24.25675244476527</v>
+      </c>
+      <c r="G1611">
+        <v>25.89361209556467</v>
+      </c>
+      <c r="H1611">
+        <v>26.05818956911853</v>
+      </c>
+      <c r="I1611">
+        <v>29.19655751133206</v>
+      </c>
+      <c r="J1611">
+        <v>30.84742543874331</v>
+      </c>
+      <c r="K1611">
+        <v>34.96385291597901</v>
+      </c>
+      <c r="L1611">
+        <v>31.6860396685193</v>
+      </c>
+      <c r="M1611">
+        <v>31.02262371997962</v>
+      </c>
       <c r="N1611" t="s">
         <v>35</v>
       </c>
@@ -75819,6 +77043,42 @@
       <c r="A1612" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B1612">
+        <v>34.31182843795389</v>
+      </c>
+      <c r="C1612">
+        <v>30.28743768140083</v>
+      </c>
+      <c r="D1612">
+        <v>30.06133150155633</v>
+      </c>
+      <c r="E1612">
+        <v>30.66033255840878</v>
+      </c>
+      <c r="F1612">
+        <v>33.81861510923926</v>
+      </c>
+      <c r="G1612">
+        <v>33.97684397787455</v>
+      </c>
+      <c r="H1612">
+        <v>33.20624120492153</v>
+      </c>
+      <c r="I1612">
+        <v>37.07706390559934</v>
+      </c>
+      <c r="J1612">
+        <v>39.58338876529871</v>
+      </c>
+      <c r="K1612">
+        <v>41.37350290344743</v>
+      </c>
+      <c r="L1612">
+        <v>40.71774080081631</v>
+      </c>
+      <c r="M1612">
+        <v>37.43699352910168</v>
+      </c>
       <c r="N1612" t="s">
         <v>35</v>
       </c>
@@ -75833,6 +77093,42 @@
       <c r="A1613" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B1613">
+        <v>45.81752722883566</v>
+      </c>
+      <c r="C1613">
+        <v>43.78525717501476</v>
+      </c>
+      <c r="D1613">
+        <v>45.8282540911937</v>
+      </c>
+      <c r="E1613">
+        <v>44.16649200828309</v>
+      </c>
+      <c r="F1613">
+        <v>44.7574752792051</v>
+      </c>
+      <c r="G1613">
+        <v>48.91438079808628</v>
+      </c>
+      <c r="H1613">
+        <v>49.47921243939015</v>
+      </c>
+      <c r="I1613">
+        <v>52.30409316003853</v>
+      </c>
+      <c r="J1613">
+        <v>50.797902641265</v>
+      </c>
+      <c r="K1613">
+        <v>55.9157385008984</v>
+      </c>
+      <c r="L1613">
+        <v>57.10146655618028</v>
+      </c>
+      <c r="M1613">
+        <v>56.77845287456293</v>
+      </c>
       <c r="N1613" t="s">
         <v>35</v>
       </c>
@@ -75847,6 +77143,42 @@
       <c r="A1614" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1614">
+        <v>46.94421142138388</v>
+      </c>
+      <c r="C1614">
+        <v>47.68457938030566</v>
+      </c>
+      <c r="D1614">
+        <v>52.82645677127165</v>
+      </c>
+      <c r="E1614">
+        <v>53.94219149352344</v>
+      </c>
+      <c r="F1614">
+        <v>56.57873549248592</v>
+      </c>
+      <c r="G1614">
+        <v>57.93366684023676</v>
+      </c>
+      <c r="H1614">
+        <v>59.62135340617507</v>
+      </c>
+      <c r="I1614">
+        <v>57.51638082221882</v>
+      </c>
+      <c r="J1614">
+        <v>57.82550853083022</v>
+      </c>
+      <c r="K1614">
+        <v>60.11217325415142</v>
+      </c>
+      <c r="L1614">
+        <v>60.45806321100244</v>
+      </c>
+      <c r="M1614">
+        <v>61.13241210303167</v>
+      </c>
       <c r="N1614" t="s">
         <v>36</v>
       </c>
@@ -75861,6 +77193,42 @@
       <c r="A1615" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B1615">
+        <v>32.99390845423182</v>
+      </c>
+      <c r="C1615">
+        <v>33.07943853919213</v>
+      </c>
+      <c r="D1615">
+        <v>33.44496949934953</v>
+      </c>
+      <c r="E1615">
+        <v>32.8246547395798</v>
+      </c>
+      <c r="F1615">
+        <v>39.17716579879104</v>
+      </c>
+      <c r="G1615">
+        <v>44.48775561004146</v>
+      </c>
+      <c r="H1615">
+        <v>48.44370333942298</v>
+      </c>
+      <c r="I1615">
+        <v>52.49896486850638</v>
+      </c>
+      <c r="J1615">
+        <v>55.17018722976293</v>
+      </c>
+      <c r="K1615">
+        <v>54.4131025961012</v>
+      </c>
+      <c r="L1615">
+        <v>53.47674775147954</v>
+      </c>
+      <c r="M1615">
+        <v>52.74899620488591</v>
+      </c>
       <c r="N1615" t="s">
         <v>36</v>
       </c>
@@ -75875,6 +77243,42 @@
       <c r="A1616" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B1616">
+        <v>44.29866407945505</v>
+      </c>
+      <c r="C1616">
+        <v>45.98614568543836</v>
+      </c>
+      <c r="D1616">
+        <v>49.92693579164045</v>
+      </c>
+      <c r="E1616">
+        <v>49.19132597678502</v>
+      </c>
+      <c r="F1616">
+        <v>52.34089657379902</v>
+      </c>
+      <c r="G1616">
+        <v>52.91953013186138</v>
+      </c>
+      <c r="H1616">
+        <v>54.02844497394264</v>
+      </c>
+      <c r="I1616">
+        <v>54.24491252061019</v>
+      </c>
+      <c r="J1616">
+        <v>55.10593568586309</v>
+      </c>
+      <c r="K1616">
+        <v>55.95147349155609</v>
+      </c>
+      <c r="L1616">
+        <v>55.76214297508392</v>
+      </c>
+      <c r="M1616">
+        <v>55.78451889919577</v>
+      </c>
       <c r="N1616" t="s">
         <v>36</v>
       </c>
@@ -75889,6 +77293,42 @@
       <c r="A1617" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B1617">
+        <v>65.02655710655071</v>
+      </c>
+      <c r="C1617">
+        <v>59.84041326503434</v>
+      </c>
+      <c r="D1617">
+        <v>54.11728402058936</v>
+      </c>
+      <c r="E1617">
+        <v>53.41390516779101</v>
+      </c>
+      <c r="F1617">
+        <v>57.79344060127004</v>
+      </c>
+      <c r="G1617">
+        <v>57.49128718642485</v>
+      </c>
+      <c r="H1617">
+        <v>61.42562971005775</v>
+      </c>
+      <c r="I1617">
+        <v>63.79533157352366</v>
+      </c>
+      <c r="J1617">
+        <v>66.69240407803571</v>
+      </c>
+      <c r="K1617">
+        <v>72.94834906888326</v>
+      </c>
+      <c r="L1617">
+        <v>71.75805285555714</v>
+      </c>
+      <c r="M1617">
+        <v>71.5925918207972</v>
+      </c>
       <c r="N1617" t="s">
         <v>36</v>
       </c>
@@ -75903,6 +77343,42 @@
       <c r="A1618" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B1618">
+        <v>32.14511027481935</v>
+      </c>
+      <c r="C1618">
+        <v>32.90825111901857</v>
+      </c>
+      <c r="D1618">
+        <v>38.9463509484624</v>
+      </c>
+      <c r="E1618">
+        <v>40.0836010891984</v>
+      </c>
+      <c r="F1618">
+        <v>42.99390505978815</v>
+      </c>
+      <c r="G1618">
+        <v>47.15278986225174</v>
+      </c>
+      <c r="H1618">
+        <v>48.83440000152709</v>
+      </c>
+      <c r="I1618">
+        <v>52.13075428690013</v>
+      </c>
+      <c r="J1618">
+        <v>56.70859997593796</v>
+      </c>
+      <c r="K1618">
+        <v>55.36209240106564</v>
+      </c>
+      <c r="L1618">
+        <v>57.5818672727698</v>
+      </c>
+      <c r="M1618">
+        <v>60.17510523464034</v>
+      </c>
       <c r="N1618" t="s">
         <v>36</v>
       </c>
@@ -75917,6 +77393,42 @@
       <c r="A1619" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B1619">
+        <v>36.01033208154803</v>
+      </c>
+      <c r="C1619">
+        <v>36.83719455894539</v>
+      </c>
+      <c r="D1619">
+        <v>38.61410962124878</v>
+      </c>
+      <c r="E1619">
+        <v>40.1570970994789</v>
+      </c>
+      <c r="F1619">
+        <v>42.44136795089581</v>
+      </c>
+      <c r="G1619">
+        <v>44.81901910598988</v>
+      </c>
+      <c r="H1619">
+        <v>47.1520085516498</v>
+      </c>
+      <c r="I1619">
+        <v>49.03447595453149</v>
+      </c>
+      <c r="J1619">
+        <v>49.49606422280412</v>
+      </c>
+      <c r="K1619">
+        <v>50.11835337073104</v>
+      </c>
+      <c r="L1619">
+        <v>50.45409344457983</v>
+      </c>
+      <c r="M1619">
+        <v>51.55381249189927</v>
+      </c>
       <c r="N1619" t="s">
         <v>36</v>
       </c>
@@ -75931,6 +77443,42 @@
       <c r="A1620" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B1620">
+        <v>57.1436312734274</v>
+      </c>
+      <c r="C1620">
+        <v>57.96811467877311</v>
+      </c>
+      <c r="D1620">
+        <v>60.50672892006156</v>
+      </c>
+      <c r="E1620">
+        <v>60.64344283601596</v>
+      </c>
+      <c r="F1620">
+        <v>63.13469849454592</v>
+      </c>
+      <c r="G1620">
+        <v>64.24167155401675</v>
+      </c>
+      <c r="H1620">
+        <v>65.22837791372373</v>
+      </c>
+      <c r="I1620">
+        <v>65.17846275513909</v>
+      </c>
+      <c r="J1620">
+        <v>65.57147013218398</v>
+      </c>
+      <c r="K1620">
+        <v>64.81370398624838</v>
+      </c>
+      <c r="L1620">
+        <v>64.52149094541531</v>
+      </c>
+      <c r="M1620">
+        <v>65.14333769203711</v>
+      </c>
       <c r="N1620" t="s">
         <v>36</v>
       </c>
@@ -75945,6 +77493,42 @@
       <c r="A1621" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B1621">
+        <v>44.95471726448525</v>
+      </c>
+      <c r="C1621">
+        <v>45.73275558639243</v>
+      </c>
+      <c r="D1621">
+        <v>51.37566547331441</v>
+      </c>
+      <c r="E1621">
+        <v>50.21944650674486</v>
+      </c>
+      <c r="F1621">
+        <v>51.89061047753049</v>
+      </c>
+      <c r="G1621">
+        <v>52.36233950760216</v>
+      </c>
+      <c r="H1621">
+        <v>54.99904268703171</v>
+      </c>
+      <c r="I1621">
+        <v>59.39731169110782</v>
+      </c>
+      <c r="J1621">
+        <v>59.96943740385657</v>
+      </c>
+      <c r="K1621">
+        <v>73.35302929224068</v>
+      </c>
+      <c r="L1621">
+        <v>75.30545665760869</v>
+      </c>
+      <c r="M1621">
+        <v>83.28877347028461</v>
+      </c>
       <c r="N1621" t="s">
         <v>36</v>
       </c>
@@ -75959,6 +77543,42 @@
       <c r="A1622" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B1622">
+        <v>47.01842225016536</v>
+      </c>
+      <c r="C1622">
+        <v>47.96679918823628</v>
+      </c>
+      <c r="D1622">
+        <v>50.11218758359657</v>
+      </c>
+      <c r="E1622">
+        <v>50.52559213077944</v>
+      </c>
+      <c r="F1622">
+        <v>54.17994449540986</v>
+      </c>
+      <c r="G1622">
+        <v>58.30993717760516</v>
+      </c>
+      <c r="H1622">
+        <v>61.87735329278734</v>
+      </c>
+      <c r="I1622">
+        <v>67.13471357448431</v>
+      </c>
+      <c r="J1622">
+        <v>68.96390361257852</v>
+      </c>
+      <c r="K1622">
+        <v>73.60634898555774</v>
+      </c>
+      <c r="L1622">
+        <v>70.5758814320677</v>
+      </c>
+      <c r="M1622">
+        <v>76.91976160334323</v>
+      </c>
       <c r="N1622" t="s">
         <v>36</v>
       </c>
@@ -75973,6 +77593,42 @@
       <c r="A1623" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B1623">
+        <v>39.85539994359385</v>
+      </c>
+      <c r="C1623">
+        <v>39.82200963230903</v>
+      </c>
+      <c r="D1623">
+        <v>44.60223821602443</v>
+      </c>
+      <c r="E1623">
+        <v>39.6272381326727</v>
+      </c>
+      <c r="F1623">
+        <v>40.99144839546648</v>
+      </c>
+      <c r="G1623">
+        <v>41.71960643626507</v>
+      </c>
+      <c r="H1623">
+        <v>49.07694930490909</v>
+      </c>
+      <c r="I1623">
+        <v>53.62278819009323</v>
+      </c>
+      <c r="J1623">
+        <v>50.70839949754923</v>
+      </c>
+      <c r="K1623">
+        <v>51.63383233927123</v>
+      </c>
+      <c r="L1623">
+        <v>48.50297515270144</v>
+      </c>
+      <c r="M1623">
+        <v>47.39897094927974</v>
+      </c>
       <c r="N1623" t="s">
         <v>36</v>
       </c>
@@ -75987,6 +77643,42 @@
       <c r="A1624" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B1624">
+        <v>47.6518228350884</v>
+      </c>
+      <c r="C1624">
+        <v>42.44409284021289</v>
+      </c>
+      <c r="D1624">
+        <v>47.3044493007549</v>
+      </c>
+      <c r="E1624">
+        <v>46.00550351684554</v>
+      </c>
+      <c r="F1624">
+        <v>50.9808074765909</v>
+      </c>
+      <c r="G1624">
+        <v>49.5307155387838</v>
+      </c>
+      <c r="H1624">
+        <v>54.1402786224394</v>
+      </c>
+      <c r="I1624">
+        <v>59.9940186682982</v>
+      </c>
+      <c r="J1624">
+        <v>63.84402365847792</v>
+      </c>
+      <c r="K1624">
+        <v>70.58255248351239</v>
+      </c>
+      <c r="L1624">
+        <v>69.6197082613316</v>
+      </c>
+      <c r="M1624">
+        <v>78.53296483610463</v>
+      </c>
       <c r="N1624" t="s">
         <v>36</v>
       </c>
@@ -76001,6 +77693,42 @@
       <c r="A1625" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B1625">
+        <v>22.32704537378282</v>
+      </c>
+      <c r="C1625">
+        <v>22.08285227505724</v>
+      </c>
+      <c r="D1625">
+        <v>23.78333258080634</v>
+      </c>
+      <c r="E1625">
+        <v>25.46995232115952</v>
+      </c>
+      <c r="F1625">
+        <v>31.03847604703069</v>
+      </c>
+      <c r="G1625">
+        <v>36.20472330596883</v>
+      </c>
+      <c r="H1625">
+        <v>37.34379194726793</v>
+      </c>
+      <c r="I1625">
+        <v>40.84956353812933</v>
+      </c>
+      <c r="J1625">
+        <v>43.76672433522317</v>
+      </c>
+      <c r="K1625">
+        <v>47.09480506011171</v>
+      </c>
+      <c r="L1625">
+        <v>46.51822237839394</v>
+      </c>
+      <c r="M1625">
+        <v>51.13695442527636</v>
+      </c>
       <c r="N1625" t="s">
         <v>36</v>
       </c>
@@ -76015,6 +77743,42 @@
       <c r="A1626" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B1626">
+        <v>52.2643276064337</v>
+      </c>
+      <c r="C1626">
+        <v>52.53878874968412</v>
+      </c>
+      <c r="D1626">
+        <v>56.69153295640444</v>
+      </c>
+      <c r="E1626">
+        <v>56.42184022222359</v>
+      </c>
+      <c r="F1626">
+        <v>59.55753907794123</v>
+      </c>
+      <c r="G1626">
+        <v>61.72370910139159</v>
+      </c>
+      <c r="H1626">
+        <v>63.27384512704494</v>
+      </c>
+      <c r="I1626">
+        <v>65.86700898039663</v>
+      </c>
+      <c r="J1626">
+        <v>68.83485391884692</v>
+      </c>
+      <c r="K1626">
+        <v>66.19969624582276</v>
+      </c>
+      <c r="L1626">
+        <v>61.0360139532753</v>
+      </c>
+      <c r="M1626">
+        <v>61.97690387573952</v>
+      </c>
       <c r="N1626" t="s">
         <v>36</v>
       </c>
@@ -76029,6 +77793,42 @@
       <c r="A1627" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B1627">
+        <v>34.15671280600121</v>
+      </c>
+      <c r="C1627">
+        <v>33.91206114782533</v>
+      </c>
+      <c r="D1627">
+        <v>34.72011909110046</v>
+      </c>
+      <c r="E1627">
+        <v>34.49895463504613</v>
+      </c>
+      <c r="F1627">
+        <v>38.90213957321295</v>
+      </c>
+      <c r="G1627">
+        <v>41.04510979669423</v>
+      </c>
+      <c r="H1627">
+        <v>44.158784241772</v>
+      </c>
+      <c r="I1627">
+        <v>48.91217395081316</v>
+      </c>
+      <c r="J1627">
+        <v>49.58204266273938</v>
+      </c>
+      <c r="K1627">
+        <v>51.65203204291514</v>
+      </c>
+      <c r="L1627">
+        <v>53.24732897603955</v>
+      </c>
+      <c r="M1627">
+        <v>50.2435319155465</v>
+      </c>
       <c r="N1627" t="s">
         <v>36</v>
       </c>
@@ -76043,6 +77843,42 @@
       <c r="A1628" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B1628">
+        <v>44.21057901202277</v>
+      </c>
+      <c r="C1628">
+        <v>45.2991981315642</v>
+      </c>
+      <c r="D1628">
+        <v>50.74013220983393</v>
+      </c>
+      <c r="E1628">
+        <v>50.85802253383744</v>
+      </c>
+      <c r="F1628">
+        <v>55.02250248279761</v>
+      </c>
+      <c r="G1628">
+        <v>57.88437486171516</v>
+      </c>
+      <c r="H1628">
+        <v>60.57142675184642</v>
+      </c>
+      <c r="I1628">
+        <v>63.19016042680401</v>
+      </c>
+      <c r="J1628">
+        <v>64.97484645719693</v>
+      </c>
+      <c r="K1628">
+        <v>64.66597301151037</v>
+      </c>
+      <c r="L1628">
+        <v>61.09664379590694</v>
+      </c>
+      <c r="M1628">
+        <v>61.77403263617209</v>
+      </c>
       <c r="N1628" t="s">
         <v>36</v>
       </c>
@@ -76057,6 +77893,42 @@
       <c r="A1629" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B1629">
+        <v>56.93773914587199</v>
+      </c>
+      <c r="C1629">
+        <v>51.88268432458113</v>
+      </c>
+      <c r="D1629">
+        <v>52.72808890718927</v>
+      </c>
+      <c r="E1629">
+        <v>54.28990371777433</v>
+      </c>
+      <c r="F1629">
+        <v>57.61942466318867</v>
+      </c>
+      <c r="G1629">
+        <v>57.32541206779528</v>
+      </c>
+      <c r="H1629">
+        <v>60.71070864108594</v>
+      </c>
+      <c r="I1629">
+        <v>64.47593215239024</v>
+      </c>
+      <c r="J1629">
+        <v>66.62968787582305</v>
+      </c>
+      <c r="K1629">
+        <v>70.05264820896261</v>
+      </c>
+      <c r="L1629">
+        <v>64.26777703003708</v>
+      </c>
+      <c r="M1629">
+        <v>84.84374769678567</v>
+      </c>
       <c r="N1629" t="s">
         <v>36</v>
       </c>
@@ -76071,6 +77943,42 @@
       <c r="A1630" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B1630">
+        <v>55.72416129158879</v>
+      </c>
+      <c r="C1630">
+        <v>53.49306918067255</v>
+      </c>
+      <c r="D1630">
+        <v>58.89841030712893</v>
+      </c>
+      <c r="E1630">
+        <v>58.45449369201983</v>
+      </c>
+      <c r="F1630">
+        <v>60.3236870368487</v>
+      </c>
+      <c r="G1630">
+        <v>62.79278833593245</v>
+      </c>
+      <c r="H1630">
+        <v>65.24881983666171</v>
+      </c>
+      <c r="I1630">
+        <v>67.27481117274505</v>
+      </c>
+      <c r="J1630">
+        <v>66.56946153409406</v>
+      </c>
+      <c r="K1630">
+        <v>68.33473026699359</v>
+      </c>
+      <c r="L1630">
+        <v>69.05281865080269</v>
+      </c>
+      <c r="M1630">
+        <v>69.74506021460689</v>
+      </c>
       <c r="N1630" t="s">
         <v>36</v>
       </c>
@@ -76936,40 +78844,40 @@
         <v>3</v>
       </c>
       <c r="B1648">
-        <v>25.32845615672026</v>
+        <v>22.6769902895353</v>
       </c>
       <c r="C1648">
-        <v>23.72315371690761</v>
+        <v>19.74531137673234</v>
       </c>
       <c r="D1648">
-        <v>20.66290681664566</v>
+        <v>15.57244753278107</v>
       </c>
       <c r="E1648">
-        <v>21.05513720598938</v>
+        <v>15.77338916386624</v>
       </c>
       <c r="F1648">
-        <v>18.49002776607347</v>
+        <v>14.10959513759864</v>
       </c>
       <c r="G1648">
-        <v>17.81050250324199</v>
+        <v>14.60371629355004</v>
       </c>
       <c r="H1648">
-        <v>17.29791639952301</v>
+        <v>14.52159629412301</v>
       </c>
       <c r="I1648">
-        <v>15.70084716263354</v>
+        <v>14.72236009265534</v>
       </c>
       <c r="J1648">
-        <v>16.4219145018223</v>
+        <v>16.15535643190222</v>
       </c>
       <c r="K1648">
-        <v>16.53240164131339</v>
+        <v>15.59001736966417</v>
       </c>
       <c r="L1648">
-        <v>16.94242652096888</v>
+        <v>16.06073503013882</v>
       </c>
       <c r="M1648">
-        <v>15.89655150042346</v>
+        <v>15.4154781104652</v>
       </c>
       <c r="N1648" t="s">
         <v>38</v>
@@ -76983,43 +78891,43 @@
     </row>
     <row r="1649" spans="1:16">
       <c r="A1649" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1649">
-        <v>22.6769902895353</v>
+        <v>47.92508918415472</v>
       </c>
       <c r="C1649">
-        <v>19.74531137673234</v>
+        <v>45.7328575244208</v>
       </c>
       <c r="D1649">
-        <v>15.57244753278107</v>
+        <v>42.1043752175425</v>
       </c>
       <c r="E1649">
-        <v>15.77338916386624</v>
+        <v>38.09814087290388</v>
       </c>
       <c r="F1649">
-        <v>14.10959513759864</v>
+        <v>29.79570266823163</v>
       </c>
       <c r="G1649">
-        <v>14.60371629355004</v>
+        <v>24.19070021744378</v>
       </c>
       <c r="H1649">
-        <v>14.52159629412301</v>
+        <v>21.16620582997766</v>
       </c>
       <c r="I1649">
-        <v>14.72236009265534</v>
+        <v>19.19790558338985</v>
       </c>
       <c r="J1649">
-        <v>16.15535643190222</v>
+        <v>20.52827547896313</v>
       </c>
       <c r="K1649">
-        <v>15.59001736966417</v>
+        <v>21.13907171314012</v>
       </c>
       <c r="L1649">
-        <v>16.06073503013882</v>
+        <v>22.13524094454119</v>
       </c>
       <c r="M1649">
-        <v>15.4154781104652</v>
+        <v>24.17443462165982</v>
       </c>
       <c r="N1649" t="s">
         <v>38</v>
@@ -77028,48 +78936,48 @@
         <v>44</v>
       </c>
       <c r="P1649" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1650" spans="1:16">
       <c r="A1650" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1650">
-        <v>47.92508918415472</v>
+        <v>45.64094204123349</v>
       </c>
       <c r="C1650">
-        <v>45.7328575244208</v>
+        <v>42.21827768382322</v>
       </c>
       <c r="D1650">
-        <v>42.1043752175425</v>
+        <v>38.13333496221039</v>
       </c>
       <c r="E1650">
-        <v>38.09814087290388</v>
+        <v>36.63888710630216</v>
       </c>
       <c r="F1650">
-        <v>29.79570266823163</v>
+        <v>33.51809006200654</v>
       </c>
       <c r="G1650">
-        <v>24.19070021744378</v>
+        <v>32.59737980138746</v>
       </c>
       <c r="H1650">
-        <v>21.16620582997766</v>
+        <v>30.70770300004838</v>
       </c>
       <c r="I1650">
-        <v>19.19790558338985</v>
+        <v>28.7057223544029</v>
       </c>
       <c r="J1650">
-        <v>20.52827547896313</v>
+        <v>28.64650247256383</v>
       </c>
       <c r="K1650">
-        <v>21.13907171314012</v>
+        <v>29.71572439908008</v>
       </c>
       <c r="L1650">
-        <v>22.13524094454119</v>
+        <v>27.16394617460352</v>
       </c>
       <c r="M1650">
-        <v>24.17443462165982</v>
+        <v>26.69960594105214</v>
       </c>
       <c r="N1650" t="s">
         <v>38</v>
@@ -77078,48 +78986,48 @@
         <v>44</v>
       </c>
       <c r="P1650" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1651" spans="1:16">
       <c r="A1651" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1651">
-        <v>45.64094204123349</v>
+        <v>28.23245442855345</v>
       </c>
       <c r="C1651">
-        <v>42.21827768382322</v>
+        <v>30.55715661056341</v>
       </c>
       <c r="D1651">
-        <v>38.13333496221039</v>
+        <v>28.90063551878062</v>
       </c>
       <c r="E1651">
-        <v>36.63888710630216</v>
+        <v>29.29973954416377</v>
       </c>
       <c r="F1651">
-        <v>33.51809006200654</v>
+        <v>19.29801725311598</v>
       </c>
       <c r="G1651">
-        <v>32.59737980138746</v>
+        <v>19.69173592804316</v>
       </c>
       <c r="H1651">
-        <v>30.70770300004838</v>
+        <v>18.37211136138652</v>
       </c>
       <c r="I1651">
-        <v>28.7057223544029</v>
+        <v>19.48111885688294</v>
       </c>
       <c r="J1651">
-        <v>28.64650247256383</v>
+        <v>20.35459733778044</v>
       </c>
       <c r="K1651">
-        <v>29.71572439908008</v>
+        <v>19.42630543078196</v>
       </c>
       <c r="L1651">
-        <v>27.16394617460352</v>
+        <v>25.24609240152551</v>
       </c>
       <c r="M1651">
-        <v>26.69960594105214</v>
+        <v>23.1918084432747</v>
       </c>
       <c r="N1651" t="s">
         <v>38</v>
@@ -77128,48 +79036,48 @@
         <v>44</v>
       </c>
       <c r="P1651" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1652" spans="1:16">
       <c r="A1652" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1652">
-        <v>28.23245442855345</v>
+        <v>11.35552259612382</v>
       </c>
       <c r="C1652">
-        <v>30.55715661056341</v>
+        <v>15.82335368795682</v>
       </c>
       <c r="D1652">
-        <v>28.90063551878062</v>
+        <v>14.19401365502606</v>
       </c>
       <c r="E1652">
-        <v>29.29973954416377</v>
+        <v>17.0413363083158</v>
       </c>
       <c r="F1652">
-        <v>19.29801725311598</v>
+        <v>13.76308813559346</v>
       </c>
       <c r="G1652">
-        <v>19.69173592804316</v>
+        <v>15.62409355201821</v>
       </c>
       <c r="H1652">
-        <v>18.37211136138652</v>
+        <v>15.50735521258862</v>
       </c>
       <c r="I1652">
-        <v>19.48111885688294</v>
+        <v>14.8553392953509</v>
       </c>
       <c r="J1652">
-        <v>20.35459733778044</v>
+        <v>16.35954946486131</v>
       </c>
       <c r="K1652">
-        <v>19.42630543078196</v>
+        <v>16.34349780722274</v>
       </c>
       <c r="L1652">
-        <v>25.24609240152551</v>
+        <v>14.90895547196371</v>
       </c>
       <c r="M1652">
-        <v>23.1918084432747</v>
+        <v>14.36327217405291</v>
       </c>
       <c r="N1652" t="s">
         <v>38</v>
@@ -77178,48 +79086,48 @@
         <v>44</v>
       </c>
       <c r="P1652" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1653" spans="1:16">
       <c r="A1653" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1653">
-        <v>11.35552259612382</v>
+        <v>9.281042513234883</v>
       </c>
       <c r="C1653">
-        <v>15.82335368795682</v>
+        <v>8.723258986244453</v>
       </c>
       <c r="D1653">
-        <v>14.19401365502606</v>
+        <v>6.4492017814455</v>
       </c>
       <c r="E1653">
-        <v>17.0413363083158</v>
+        <v>7.670755400345813</v>
       </c>
       <c r="F1653">
-        <v>13.76308813559346</v>
+        <v>6.618406541067405</v>
       </c>
       <c r="G1653">
-        <v>15.62409355201821</v>
+        <v>6.115453708877464</v>
       </c>
       <c r="H1653">
-        <v>15.50735521258862</v>
+        <v>5.928547613435519</v>
       </c>
       <c r="I1653">
-        <v>14.8553392953509</v>
+        <v>5.274397737584127</v>
       </c>
       <c r="J1653">
-        <v>16.35954946486131</v>
+        <v>5.593694388701453</v>
       </c>
       <c r="K1653">
-        <v>16.34349780722274</v>
+        <v>5.218641780206131</v>
       </c>
       <c r="L1653">
-        <v>14.90895547196371</v>
+        <v>6.728536035311833</v>
       </c>
       <c r="M1653">
-        <v>14.36327217405291</v>
+        <v>5.731710626451079</v>
       </c>
       <c r="N1653" t="s">
         <v>38</v>
@@ -77228,48 +79136,48 @@
         <v>44</v>
       </c>
       <c r="P1653" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1654" spans="1:16">
       <c r="A1654" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1654">
-        <v>9.281042513234883</v>
+        <v>15.3265642027353</v>
       </c>
       <c r="C1654">
-        <v>8.723258986244453</v>
+        <v>13.61176931765492</v>
       </c>
       <c r="D1654">
-        <v>6.4492017814455</v>
+        <v>11.36327453490668</v>
       </c>
       <c r="E1654">
-        <v>7.670755400345813</v>
+        <v>12.16215956862924</v>
       </c>
       <c r="F1654">
-        <v>6.618406541067405</v>
+        <v>10.95085679011962</v>
       </c>
       <c r="G1654">
-        <v>6.115453708877464</v>
+        <v>10.564639096142</v>
       </c>
       <c r="H1654">
-        <v>5.928547613435519</v>
+        <v>10.41492691504944</v>
       </c>
       <c r="I1654">
-        <v>5.274397737584127</v>
+        <v>9.722244143176015</v>
       </c>
       <c r="J1654">
-        <v>5.593694388701453</v>
+        <v>10.72282725467195</v>
       </c>
       <c r="K1654">
-        <v>5.218641780206131</v>
+        <v>10.5572356221629</v>
       </c>
       <c r="L1654">
-        <v>6.728536035311833</v>
+        <v>10.79318038009595</v>
       </c>
       <c r="M1654">
-        <v>5.731710626451079</v>
+        <v>10.56061769416927</v>
       </c>
       <c r="N1654" t="s">
         <v>38</v>
@@ -77278,48 +79186,48 @@
         <v>44</v>
       </c>
       <c r="P1654" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1655" spans="1:16">
       <c r="A1655" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1655">
-        <v>15.3265642027353</v>
+        <v>32.22158984863099</v>
       </c>
       <c r="C1655">
-        <v>13.61176931765492</v>
+        <v>24.81250034046461</v>
       </c>
       <c r="D1655">
-        <v>11.36327453490668</v>
+        <v>20.57318470708131</v>
       </c>
       <c r="E1655">
-        <v>12.16215956862924</v>
+        <v>23.74763162475703</v>
       </c>
       <c r="F1655">
-        <v>10.95085679011962</v>
+        <v>22.13293457546088</v>
       </c>
       <c r="G1655">
-        <v>10.564639096142</v>
+        <v>21.08075098224529</v>
       </c>
       <c r="H1655">
-        <v>10.41492691504944</v>
+        <v>20.0143733068039</v>
       </c>
       <c r="I1655">
-        <v>9.722244143176015</v>
+        <v>17.18205832807369</v>
       </c>
       <c r="J1655">
-        <v>10.72282725467195</v>
+        <v>17.06691593801705</v>
       </c>
       <c r="K1655">
-        <v>10.5572356221629</v>
+        <v>13.28490176219855</v>
       </c>
       <c r="L1655">
-        <v>10.79318038009595</v>
+        <v>14.65964836476735</v>
       </c>
       <c r="M1655">
-        <v>10.56061769416927</v>
+        <v>10.31677407361645</v>
       </c>
       <c r="N1655" t="s">
         <v>38</v>
@@ -77328,48 +79236,48 @@
         <v>44</v>
       </c>
       <c r="P1655" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1656" spans="1:16">
       <c r="A1656" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1656">
-        <v>32.22158984863099</v>
+        <v>23.83639512949799</v>
       </c>
       <c r="C1656">
-        <v>24.81250034046461</v>
+        <v>22.37096298422573</v>
       </c>
       <c r="D1656">
-        <v>20.57318470708131</v>
+        <v>18.40820693780621</v>
       </c>
       <c r="E1656">
-        <v>23.74763162475703</v>
+        <v>20.35058270641875</v>
       </c>
       <c r="F1656">
-        <v>22.13293457546088</v>
+        <v>16.98176113604243</v>
       </c>
       <c r="G1656">
-        <v>21.08075098224529</v>
+        <v>17.84759285617081</v>
       </c>
       <c r="H1656">
-        <v>20.0143733068039</v>
+        <v>15.6879782655085</v>
       </c>
       <c r="I1656">
-        <v>17.18205832807369</v>
+        <v>12.0085690202327</v>
       </c>
       <c r="J1656">
-        <v>17.06691593801705</v>
+        <v>14.25028608849308</v>
       </c>
       <c r="K1656">
-        <v>13.28490176219855</v>
+        <v>17.68547908935076</v>
       </c>
       <c r="L1656">
-        <v>14.65964836476735</v>
+        <v>19.65795455558253</v>
       </c>
       <c r="M1656">
-        <v>10.31677407361645</v>
+        <v>9.359824377219988</v>
       </c>
       <c r="N1656" t="s">
         <v>38</v>
@@ -77378,48 +79286,48 @@
         <v>44</v>
       </c>
       <c r="P1656" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1657" spans="1:16">
       <c r="A1657" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1657">
-        <v>23.83639512949799</v>
+        <v>30.49415869918127</v>
       </c>
       <c r="C1657">
-        <v>22.37096298422573</v>
+        <v>28.08768410406207</v>
       </c>
       <c r="D1657">
-        <v>18.40820693780621</v>
+        <v>26.05356916666389</v>
       </c>
       <c r="E1657">
-        <v>20.35058270641875</v>
+        <v>29.25526161984107</v>
       </c>
       <c r="F1657">
-        <v>16.98176113604243</v>
+        <v>27.65039051077032</v>
       </c>
       <c r="G1657">
-        <v>17.84759285617081</v>
+        <v>28.27899622800535</v>
       </c>
       <c r="H1657">
-        <v>15.6879782655085</v>
+        <v>27.18290616846614</v>
       </c>
       <c r="I1657">
-        <v>12.0085690202327</v>
+        <v>24.17160436574332</v>
       </c>
       <c r="J1657">
-        <v>14.25028608849308</v>
+        <v>28.86683877737786</v>
       </c>
       <c r="K1657">
-        <v>17.68547908935076</v>
+        <v>26.38194180377099</v>
       </c>
       <c r="L1657">
-        <v>19.65795455558253</v>
+        <v>27.88004730597791</v>
       </c>
       <c r="M1657">
-        <v>9.359824377219988</v>
+        <v>26.94982223924545</v>
       </c>
       <c r="N1657" t="s">
         <v>38</v>
@@ -77428,48 +79336,48 @@
         <v>44</v>
       </c>
       <c r="P1657" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1658" spans="1:16">
       <c r="A1658" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1658">
-        <v>30.49415869918127</v>
+        <v>9.462477942724338</v>
       </c>
       <c r="C1658">
-        <v>28.08768410406207</v>
+        <v>10.77979184473383</v>
       </c>
       <c r="D1658">
-        <v>26.05356916666389</v>
+        <v>8.93741900577729</v>
       </c>
       <c r="E1658">
-        <v>29.25526161984107</v>
+        <v>11.88366872923579</v>
       </c>
       <c r="F1658">
-        <v>27.65039051077032</v>
+        <v>11.29599503157966</v>
       </c>
       <c r="G1658">
-        <v>28.27899622800535</v>
+        <v>13.12294386061474</v>
       </c>
       <c r="H1658">
-        <v>27.18290616846614</v>
+        <v>11.11869985815456</v>
       </c>
       <c r="I1658">
-        <v>24.17160436574332</v>
+        <v>9.268134073155347</v>
       </c>
       <c r="J1658">
-        <v>28.86683877737786</v>
+        <v>8.027325851328458</v>
       </c>
       <c r="K1658">
-        <v>26.38194180377099</v>
+        <v>6.455559185692707</v>
       </c>
       <c r="L1658">
-        <v>27.88004730597791</v>
+        <v>9.356280530875763</v>
       </c>
       <c r="M1658">
-        <v>26.94982223924545</v>
+        <v>1.855798529295139</v>
       </c>
       <c r="N1658" t="s">
         <v>38</v>
@@ -77478,48 +79386,48 @@
         <v>44</v>
       </c>
       <c r="P1658" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1659" spans="1:16">
       <c r="A1659" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1659">
-        <v>9.462477942724338</v>
+        <v>6.107063963844194</v>
       </c>
       <c r="C1659">
-        <v>10.77979184473383</v>
+        <v>8.414566022866389</v>
       </c>
       <c r="D1659">
-        <v>8.93741900577729</v>
+        <v>5.785965949042217</v>
       </c>
       <c r="E1659">
-        <v>11.88366872923579</v>
+        <v>6.574861830589312</v>
       </c>
       <c r="F1659">
-        <v>11.29599503157966</v>
+        <v>7.436090940568572</v>
       </c>
       <c r="G1659">
-        <v>13.12294386061474</v>
+        <v>5.921752407581399</v>
       </c>
       <c r="H1659">
-        <v>11.11869985815456</v>
+        <v>10.31304215874874</v>
       </c>
       <c r="I1659">
-        <v>9.268134073155347</v>
+        <v>6.713256545605153</v>
       </c>
       <c r="J1659">
-        <v>8.027325851328458</v>
+        <v>8.248252967339996</v>
       </c>
       <c r="K1659">
-        <v>6.455559185692707</v>
+        <v>9.254448449387507</v>
       </c>
       <c r="L1659">
-        <v>9.356280530875763</v>
+        <v>8.91859079605733</v>
       </c>
       <c r="M1659">
-        <v>1.855798529295139</v>
+        <v>8.16350400864674</v>
       </c>
       <c r="N1659" t="s">
         <v>38</v>
@@ -77528,48 +79436,48 @@
         <v>44</v>
       </c>
       <c r="P1659" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1660" spans="1:16">
       <c r="A1660" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1660">
-        <v>6.107063963844194</v>
+        <v>16.11998721571252</v>
       </c>
       <c r="C1660">
-        <v>8.414566022866389</v>
+        <v>17.116593344552</v>
       </c>
       <c r="D1660">
-        <v>5.785965949042217</v>
+        <v>12.17800664560164</v>
       </c>
       <c r="E1660">
-        <v>6.574861830589312</v>
+        <v>16.06968506374173</v>
       </c>
       <c r="F1660">
-        <v>7.436090940568572</v>
+        <v>14.84719417328095</v>
       </c>
       <c r="G1660">
-        <v>5.921752407581399</v>
+        <v>14.7875314590457</v>
       </c>
       <c r="H1660">
-        <v>10.31304215874874</v>
+        <v>14.46749600267959</v>
       </c>
       <c r="I1660">
-        <v>6.713256545605153</v>
+        <v>12.52684258682865</v>
       </c>
       <c r="J1660">
-        <v>8.248252967339996</v>
+        <v>12.11535121766171</v>
       </c>
       <c r="K1660">
-        <v>9.254448449387507</v>
+        <v>12.70371057181818</v>
       </c>
       <c r="L1660">
-        <v>8.91859079605733</v>
+        <v>15.62702792781302</v>
       </c>
       <c r="M1660">
-        <v>8.16350400864674</v>
+        <v>14.30152652190199</v>
       </c>
       <c r="N1660" t="s">
         <v>38</v>
@@ -77578,48 +79486,48 @@
         <v>44</v>
       </c>
       <c r="P1660" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1661" spans="1:16">
       <c r="A1661" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1661">
-        <v>16.11998721571252</v>
+        <v>24.74994107614807</v>
       </c>
       <c r="C1661">
-        <v>17.116593344552</v>
+        <v>23.95333259633085</v>
       </c>
       <c r="D1661">
-        <v>12.17800664560164</v>
+        <v>18.29812249691889</v>
       </c>
       <c r="E1661">
-        <v>16.06968506374173</v>
+        <v>19.79509957529269</v>
       </c>
       <c r="F1661">
-        <v>14.84719417328095</v>
+        <v>18.19300323453419</v>
       </c>
       <c r="G1661">
-        <v>14.7875314590457</v>
+        <v>16.69583111018046</v>
       </c>
       <c r="H1661">
-        <v>14.46749600267959</v>
+        <v>16.19548120430726</v>
       </c>
       <c r="I1661">
-        <v>12.52684258682865</v>
+        <v>13.39996088145885</v>
       </c>
       <c r="J1661">
-        <v>12.11535121766171</v>
+        <v>14.51513963010496</v>
       </c>
       <c r="K1661">
-        <v>12.70371057181818</v>
+        <v>11.38513532716946</v>
       </c>
       <c r="L1661">
-        <v>15.62702792781302</v>
+        <v>10.0808860108802</v>
       </c>
       <c r="M1661">
-        <v>14.30152652190199</v>
+        <v>16.67078819333818</v>
       </c>
       <c r="N1661" t="s">
         <v>38</v>
@@ -77628,48 +79536,48 @@
         <v>44</v>
       </c>
       <c r="P1661" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1662" spans="1:16">
       <c r="A1662" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1662">
-        <v>24.74994107614807</v>
+        <v>30.41656811260734</v>
       </c>
       <c r="C1662">
-        <v>23.95333259633085</v>
+        <v>28.70431266736974</v>
       </c>
       <c r="D1662">
-        <v>18.29812249691889</v>
+        <v>20.48884864497141</v>
       </c>
       <c r="E1662">
-        <v>19.79509957529269</v>
+        <v>28.31487063310816</v>
       </c>
       <c r="F1662">
-        <v>18.19300323453419</v>
+        <v>26.72502675029864</v>
       </c>
       <c r="G1662">
-        <v>16.69583111018046</v>
+        <v>24.59332873638893</v>
       </c>
       <c r="H1662">
-        <v>16.19548120430726</v>
+        <v>25.90717114632228</v>
       </c>
       <c r="I1662">
-        <v>13.39996088145885</v>
+        <v>22.16141745061524</v>
       </c>
       <c r="J1662">
-        <v>14.51513963010496</v>
+        <v>24.0826766063607</v>
       </c>
       <c r="K1662">
-        <v>11.38513532716946</v>
+        <v>24.30024275366469</v>
       </c>
       <c r="L1662">
-        <v>10.0808860108802</v>
+        <v>27.10769171176254</v>
       </c>
       <c r="M1662">
-        <v>16.67078819333818</v>
+        <v>27.21500888036309</v>
       </c>
       <c r="N1662" t="s">
         <v>38</v>
@@ -77678,48 +79586,48 @@
         <v>44</v>
       </c>
       <c r="P1662" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1663" spans="1:16">
       <c r="A1663" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1663">
-        <v>30.41656811260734</v>
+        <v>16.95549763430109</v>
       </c>
       <c r="C1663">
-        <v>28.70431266736974</v>
+        <v>13.28908559851504</v>
       </c>
       <c r="D1663">
-        <v>20.48884864497141</v>
+        <v>14.16770931532116</v>
       </c>
       <c r="E1663">
-        <v>28.31487063310816</v>
+        <v>15.39022117635285</v>
       </c>
       <c r="F1663">
-        <v>26.72502675029864</v>
+        <v>13.23179108008075</v>
       </c>
       <c r="G1663">
-        <v>24.59332873638893</v>
+        <v>13.9315566126329</v>
       </c>
       <c r="H1663">
-        <v>25.90717114632228</v>
+        <v>12.55880479672975</v>
       </c>
       <c r="I1663">
-        <v>22.16141745061524</v>
+        <v>13.82982220098627</v>
       </c>
       <c r="J1663">
-        <v>24.0826766063607</v>
+        <v>13.64780755276071</v>
       </c>
       <c r="K1663">
-        <v>24.30024275366469</v>
+        <v>15.7323470027458</v>
       </c>
       <c r="L1663">
-        <v>27.10769171176254</v>
+        <v>25.02004966250843</v>
       </c>
       <c r="M1663">
-        <v>27.21500888036309</v>
+        <v>9.987542971083837</v>
       </c>
       <c r="N1663" t="s">
         <v>38</v>
@@ -77728,48 +79636,48 @@
         <v>44</v>
       </c>
       <c r="P1663" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1664" spans="1:16">
       <c r="A1664" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1664">
-        <v>16.95549763430109</v>
+        <v>16.45554893819193</v>
       </c>
       <c r="C1664">
-        <v>13.28908559851504</v>
+        <v>17.04921544424729</v>
       </c>
       <c r="D1664">
-        <v>14.16770931532116</v>
+        <v>9.414096764044336</v>
       </c>
       <c r="E1664">
-        <v>15.39022117635285</v>
+        <v>13.7391111573682</v>
       </c>
       <c r="F1664">
-        <v>13.23179108008075</v>
+        <v>11.7999694302865</v>
       </c>
       <c r="G1664">
-        <v>13.9315566126329</v>
+        <v>10.73063198893439</v>
       </c>
       <c r="H1664">
-        <v>12.55880479672975</v>
+        <v>11.37281163114324</v>
       </c>
       <c r="I1664">
-        <v>13.82982220098627</v>
+        <v>9.768257023179489</v>
       </c>
       <c r="J1664">
-        <v>13.64780755276071</v>
+        <v>12.40196840470867</v>
       </c>
       <c r="K1664">
-        <v>15.7323470027458</v>
+        <v>10.38197015152143</v>
       </c>
       <c r="L1664">
-        <v>25.02004966250843</v>
+        <v>11.76039659702093</v>
       </c>
       <c r="M1664">
-        <v>9.987542971083837</v>
+        <v>11.43832575601602</v>
       </c>
       <c r="N1664" t="s">
         <v>38</v>
@@ -77778,98 +79686,98 @@
         <v>44</v>
       </c>
       <c r="P1664" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1665" spans="1:16">
       <c r="A1665" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B1665">
-        <v>16.45554893819193</v>
+        <v>227.2982323024836</v>
       </c>
       <c r="C1665">
-        <v>17.04921544424729</v>
+        <v>266.9052501715348</v>
       </c>
       <c r="D1665">
-        <v>9.414096764044336</v>
+        <v>371.4863104770764</v>
       </c>
       <c r="E1665">
-        <v>13.7391111573682</v>
+        <v>373.4783156662081</v>
       </c>
       <c r="F1665">
-        <v>11.7999694302865</v>
+        <v>441.9201456810283</v>
       </c>
       <c r="G1665">
-        <v>10.73063198893439</v>
+        <v>438.1428182120954</v>
       </c>
       <c r="H1665">
-        <v>11.37281163114324</v>
+        <v>448.7163854410396</v>
       </c>
       <c r="I1665">
-        <v>9.768257023179489</v>
+        <v>436.3782969703478</v>
       </c>
       <c r="J1665">
-        <v>12.40196840470867</v>
+        <v>398.1068556069718</v>
       </c>
       <c r="K1665">
-        <v>10.38197015152143</v>
+        <v>423.4432931657407</v>
       </c>
       <c r="L1665">
-        <v>11.76039659702093</v>
+        <v>411.7907658070756</v>
       </c>
       <c r="M1665">
-        <v>11.43832575601602</v>
+        <v>437.4163653590723</v>
       </c>
       <c r="N1665" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O1665" t="s">
         <v>44</v>
       </c>
       <c r="P1665" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1666" spans="1:16">
       <c r="A1666" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1666">
-        <v>221.5066778409227</v>
+        <v>91.68994358633586</v>
       </c>
       <c r="C1666">
-        <v>238.412971725637</v>
+        <v>98.14104932075888</v>
       </c>
       <c r="D1666">
-        <v>287.8350556207218</v>
+        <v>107.7885643895755</v>
       </c>
       <c r="E1666">
-        <v>281.7634602472744</v>
+        <v>117.0549829039966</v>
       </c>
       <c r="F1666">
-        <v>338.5169645863911</v>
+        <v>168.1274789659181</v>
       </c>
       <c r="G1666">
-        <v>358.9756342766175</v>
+        <v>222.7193750305423</v>
       </c>
       <c r="H1666">
-        <v>380.9654404173958</v>
+        <v>270.993790687722</v>
       </c>
       <c r="I1666">
-        <v>432.3606943239868</v>
+        <v>323.0669857587861</v>
       </c>
       <c r="J1666">
-        <v>421.949857135119</v>
+        <v>313.5688876162968</v>
       </c>
       <c r="K1666">
-        <v>434.5585821212202</v>
+        <v>304.3818112801926</v>
       </c>
       <c r="L1666">
-        <v>421.2570472440943</v>
+        <v>288.1061824631203</v>
       </c>
       <c r="M1666">
-        <v>459.4422868286355</v>
+        <v>257.1463599961749</v>
       </c>
       <c r="N1666" t="s">
         <v>39</v>
@@ -77878,48 +79786,48 @@
         <v>44</v>
       </c>
       <c r="P1666" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1667" spans="1:16">
       <c r="A1667" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1667">
-        <v>227.2982323024836</v>
+        <v>116.6026112194056</v>
       </c>
       <c r="C1667">
-        <v>266.9052501715348</v>
+        <v>130.9025089105855</v>
       </c>
       <c r="D1667">
-        <v>371.4863104770764</v>
+        <v>155.9795061880535</v>
       </c>
       <c r="E1667">
-        <v>373.4783156662081</v>
+        <v>160.5391012354936</v>
       </c>
       <c r="F1667">
-        <v>441.9201456810283</v>
+        <v>184.9404755012124</v>
       </c>
       <c r="G1667">
-        <v>438.1428182120954</v>
+        <v>191.3582295811102</v>
       </c>
       <c r="H1667">
-        <v>448.7163854410396</v>
+        <v>207.5844414701502</v>
       </c>
       <c r="I1667">
-        <v>436.3782969703478</v>
+        <v>224.6102889642854</v>
       </c>
       <c r="J1667">
-        <v>398.1068556069718</v>
+        <v>228.2253635157619</v>
       </c>
       <c r="K1667">
-        <v>423.4432931657407</v>
+        <v>223.1087409975926</v>
       </c>
       <c r="L1667">
-        <v>411.7907658070756</v>
+        <v>243.4238471419727</v>
       </c>
       <c r="M1667">
-        <v>437.4163653590723</v>
+        <v>249.8567961041394</v>
       </c>
       <c r="N1667" t="s">
         <v>39</v>
@@ -77928,48 +79836,48 @@
         <v>44</v>
       </c>
       <c r="P1667" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1668" spans="1:16">
       <c r="A1668" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1668">
-        <v>91.68994358633586</v>
+        <v>243.2956793997347</v>
       </c>
       <c r="C1668">
-        <v>98.14104932075888</v>
+        <v>209.7698215887902</v>
       </c>
       <c r="D1668">
-        <v>107.7885643895755</v>
+        <v>205.4078821403892</v>
       </c>
       <c r="E1668">
-        <v>117.0549829039966</v>
+        <v>200.3100666163459</v>
       </c>
       <c r="F1668">
-        <v>168.1274789659181</v>
+        <v>328.177990704031</v>
       </c>
       <c r="G1668">
-        <v>222.7193750305423</v>
+        <v>321.6507936343563</v>
       </c>
       <c r="H1668">
-        <v>270.993790687722</v>
+        <v>358.0692889266703</v>
       </c>
       <c r="I1668">
-        <v>323.0669857587861</v>
+        <v>352.4261935091162</v>
       </c>
       <c r="J1668">
-        <v>313.5688876162968</v>
+        <v>350.8410224542883</v>
       </c>
       <c r="K1668">
-        <v>304.3818112801926</v>
+        <v>402.8101198443924</v>
       </c>
       <c r="L1668">
-        <v>288.1061824631203</v>
+        <v>304.5365966996935</v>
       </c>
       <c r="M1668">
-        <v>257.1463599961749</v>
+        <v>333.554463711664</v>
       </c>
       <c r="N1668" t="s">
         <v>39</v>
@@ -77978,48 +79886,48 @@
         <v>44</v>
       </c>
       <c r="P1668" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1669" spans="1:16">
       <c r="A1669" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1669">
-        <v>116.6026112194056</v>
+        <v>345.882439486775</v>
       </c>
       <c r="C1669">
-        <v>130.9025089105855</v>
+        <v>265.0547630536677</v>
       </c>
       <c r="D1669">
-        <v>155.9795061880535</v>
+        <v>346.3834024635763</v>
       </c>
       <c r="E1669">
-        <v>160.5391012354936</v>
+        <v>283.689184493834</v>
       </c>
       <c r="F1669">
-        <v>184.9404755012124</v>
+        <v>389.6745102750338</v>
       </c>
       <c r="G1669">
-        <v>191.3582295811102</v>
+        <v>359.6392537068895</v>
       </c>
       <c r="H1669">
-        <v>207.5844414701502</v>
+        <v>383.0310897846377</v>
       </c>
       <c r="I1669">
-        <v>224.6102889642854</v>
+        <v>421.3935858831254</v>
       </c>
       <c r="J1669">
-        <v>228.2253635157619</v>
+        <v>409.2943108375447</v>
       </c>
       <c r="K1669">
-        <v>223.1087409975926</v>
+        <v>409.5798951780276</v>
       </c>
       <c r="L1669">
-        <v>243.4238471419727</v>
+        <v>470.4847019675699</v>
       </c>
       <c r="M1669">
-        <v>249.8567961041394</v>
+        <v>498.5405693423185</v>
       </c>
       <c r="N1669" t="s">
         <v>39</v>
@@ -78028,48 +79936,48 @@
         <v>44</v>
       </c>
       <c r="P1669" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1670" spans="1:16">
       <c r="A1670" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1670">
-        <v>243.2956793997347</v>
+        <v>785.7662211356281</v>
       </c>
       <c r="C1670">
-        <v>209.7698215887902</v>
+        <v>833.8497670721813</v>
       </c>
       <c r="D1670">
-        <v>205.4078821403892</v>
+        <v>1158.780432238825</v>
       </c>
       <c r="E1670">
-        <v>200.3100666163459</v>
+        <v>977.4289406292851</v>
       </c>
       <c r="F1670">
-        <v>328.177990704031</v>
+        <v>1163.120996196428</v>
       </c>
       <c r="G1670">
-        <v>321.6507936343563</v>
+        <v>1267.692928802032</v>
       </c>
       <c r="H1670">
-        <v>358.0692889266703</v>
+        <v>1331.248519359862</v>
       </c>
       <c r="I1670">
-        <v>352.4261935091162</v>
+        <v>1522.066786699943</v>
       </c>
       <c r="J1670">
-        <v>350.8410224542883</v>
+        <v>1454.714580366348</v>
       </c>
       <c r="K1670">
-        <v>402.8101198443924</v>
+        <v>1571.327484368605</v>
       </c>
       <c r="L1670">
-        <v>304.5365966996935</v>
+        <v>1193.511171720537</v>
       </c>
       <c r="M1670">
-        <v>333.554463711664</v>
+        <v>1401.353883063181</v>
       </c>
       <c r="N1670" t="s">
         <v>39</v>
@@ -78078,48 +79986,48 @@
         <v>44</v>
       </c>
       <c r="P1670" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1671" spans="1:16">
       <c r="A1671" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1671">
-        <v>345.882439486775</v>
+        <v>418.0564037029241</v>
       </c>
       <c r="C1671">
-        <v>265.0547630536677</v>
+        <v>479.6731318487524</v>
       </c>
       <c r="D1671">
-        <v>346.3834024635763</v>
+        <v>599.0103038099702</v>
       </c>
       <c r="E1671">
-        <v>283.689184493834</v>
+        <v>559.3756504898871</v>
       </c>
       <c r="F1671">
-        <v>389.6745102750338</v>
+        <v>644.3392335890741</v>
       </c>
       <c r="G1671">
-        <v>359.6392537068895</v>
+        <v>678.5493349991808</v>
       </c>
       <c r="H1671">
-        <v>383.0310897846377</v>
+        <v>698.3004782815917</v>
       </c>
       <c r="I1671">
-        <v>421.3935858831254</v>
+        <v>749.8364046715034</v>
       </c>
       <c r="J1671">
-        <v>409.2943108375447</v>
+        <v>684.8584840048158</v>
       </c>
       <c r="K1671">
-        <v>409.5798951780276</v>
+        <v>693.6471985655837</v>
       </c>
       <c r="L1671">
-        <v>470.4847019675699</v>
+        <v>678.8023768970031</v>
       </c>
       <c r="M1671">
-        <v>498.5405693423185</v>
+        <v>703.506771141061</v>
       </c>
       <c r="N1671" t="s">
         <v>39</v>
@@ -78128,48 +80036,48 @@
         <v>44</v>
       </c>
       <c r="P1671" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1672" spans="1:16">
       <c r="A1672" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1672">
-        <v>785.7662211356281</v>
+        <v>167.8316029719091</v>
       </c>
       <c r="C1672">
-        <v>833.8497670721813</v>
+        <v>219.3300969871605</v>
       </c>
       <c r="D1672">
-        <v>1158.780432238825</v>
+        <v>286.4233993318622</v>
       </c>
       <c r="E1672">
-        <v>977.4289406292851</v>
+        <v>244.97997735445</v>
       </c>
       <c r="F1672">
-        <v>1163.120996196428</v>
+        <v>270.955873494921</v>
       </c>
       <c r="G1672">
-        <v>1267.692928802032</v>
+        <v>285.8912608146165</v>
       </c>
       <c r="H1672">
-        <v>1331.248519359862</v>
+        <v>312.8707976520682</v>
       </c>
       <c r="I1672">
-        <v>1522.066786699943</v>
+        <v>388.6046681285985</v>
       </c>
       <c r="J1672">
-        <v>1454.714580366348</v>
+        <v>391.0977102585396</v>
       </c>
       <c r="K1672">
-        <v>1571.327484368605</v>
+        <v>611.5130189552549</v>
       </c>
       <c r="L1672">
-        <v>1193.511171720537</v>
+        <v>569.9719868377302</v>
       </c>
       <c r="M1672">
-        <v>1401.353883063181</v>
+        <v>885.2117356959166</v>
       </c>
       <c r="N1672" t="s">
         <v>39</v>
@@ -78178,48 +80086,48 @@
         <v>44</v>
       </c>
       <c r="P1672" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1673" spans="1:16">
       <c r="A1673" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1673">
-        <v>418.0564037029241</v>
+        <v>229.5737165515053</v>
       </c>
       <c r="C1673">
-        <v>479.6731318487524</v>
+        <v>250.4825174499513</v>
       </c>
       <c r="D1673">
-        <v>599.0103038099702</v>
+        <v>322.1186996952607</v>
       </c>
       <c r="E1673">
-        <v>559.3756504898871</v>
+        <v>291.893217501569</v>
       </c>
       <c r="F1673">
-        <v>644.3392335890741</v>
+        <v>373.2678682887612</v>
       </c>
       <c r="G1673">
-        <v>678.5493349991808</v>
+        <v>375.2287574828839</v>
       </c>
       <c r="H1673">
-        <v>698.3004782815917</v>
+        <v>445.9343194315115</v>
       </c>
       <c r="I1673">
-        <v>749.8364046715034</v>
+        <v>629.4407371364667</v>
       </c>
       <c r="J1673">
-        <v>684.8584840048158</v>
+        <v>549.6365284192318</v>
       </c>
       <c r="K1673">
-        <v>693.6471985655837</v>
+        <v>476.7844158145588</v>
       </c>
       <c r="L1673">
-        <v>678.8023768970031</v>
+        <v>417.9895361860478</v>
       </c>
       <c r="M1673">
-        <v>703.506771141061</v>
+        <v>946.6729840516854</v>
       </c>
       <c r="N1673" t="s">
         <v>39</v>
@@ -78228,48 +80136,48 @@
         <v>44</v>
       </c>
       <c r="P1673" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1674" spans="1:16">
       <c r="A1674" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1674">
-        <v>167.8316029719091</v>
+        <v>153.7105484570091</v>
       </c>
       <c r="C1674">
-        <v>219.3300969871605</v>
+        <v>166.4176591201614</v>
       </c>
       <c r="D1674">
-        <v>286.4233993318622</v>
+        <v>197.6024135885929</v>
       </c>
       <c r="E1674">
-        <v>244.97997735445</v>
+        <v>158.0816533421479</v>
       </c>
       <c r="F1674">
-        <v>270.955873494921</v>
+        <v>173.3190109841976</v>
       </c>
       <c r="G1674">
-        <v>285.8912608146165</v>
+        <v>173.7143769748592</v>
       </c>
       <c r="H1674">
-        <v>312.8707976520682</v>
+        <v>207.4550528044269</v>
       </c>
       <c r="I1674">
-        <v>388.6046681285985</v>
+        <v>253.6318783410166</v>
       </c>
       <c r="J1674">
-        <v>391.0977102585396</v>
+        <v>205.0212172920725</v>
       </c>
       <c r="K1674">
-        <v>611.5130189552549</v>
+        <v>234.1167131303633</v>
       </c>
       <c r="L1674">
-        <v>569.9719868377302</v>
+        <v>210.6687098021953</v>
       </c>
       <c r="M1674">
-        <v>885.2117356959166</v>
+        <v>216.0517457601637</v>
       </c>
       <c r="N1674" t="s">
         <v>39</v>
@@ -78278,48 +80186,48 @@
         <v>44</v>
       </c>
       <c r="P1674" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1675" spans="1:16">
       <c r="A1675" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1675">
-        <v>229.5737165515053</v>
+        <v>557.2305245517628</v>
       </c>
       <c r="C1675">
-        <v>250.4825174499513</v>
+        <v>441.7084241927188</v>
       </c>
       <c r="D1675">
-        <v>322.1186996952607</v>
+        <v>587.2830020977816</v>
       </c>
       <c r="E1675">
-        <v>291.893217501569</v>
+        <v>441.2345041450551</v>
       </c>
       <c r="F1675">
-        <v>373.2678682887612</v>
+        <v>504.3278867917527</v>
       </c>
       <c r="G1675">
-        <v>375.2287574828839</v>
+        <v>429.4740569638287</v>
       </c>
       <c r="H1675">
-        <v>445.9343194315115</v>
+        <v>546.3424758895566</v>
       </c>
       <c r="I1675">
-        <v>629.4407371364667</v>
+        <v>718.4086354899001</v>
       </c>
       <c r="J1675">
-        <v>549.6365284192318</v>
+        <v>893.9075458647103</v>
       </c>
       <c r="K1675">
-        <v>476.7844158145588</v>
+        <v>1208.083872839595</v>
       </c>
       <c r="L1675">
-        <v>417.9895361860478</v>
+        <v>822.1310712153957</v>
       </c>
       <c r="M1675">
-        <v>946.6729840516854</v>
+        <v>4618.275264681583</v>
       </c>
       <c r="N1675" t="s">
         <v>39</v>
@@ -78328,48 +80236,48 @@
         <v>44</v>
       </c>
       <c r="P1675" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1676" spans="1:16">
       <c r="A1676" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1676">
-        <v>153.7105484570091</v>
+        <v>406.9760463635807</v>
       </c>
       <c r="C1676">
-        <v>166.4176591201614</v>
+        <v>296.968536329336</v>
       </c>
       <c r="D1676">
-        <v>197.6024135885929</v>
+        <v>456.8725630750623</v>
       </c>
       <c r="E1676">
-        <v>158.0816533421479</v>
+        <v>428.453610063387</v>
       </c>
       <c r="F1676">
-        <v>173.3190109841976</v>
+        <v>456.325403286445</v>
       </c>
       <c r="G1676">
-        <v>173.7143769748592</v>
+        <v>659.0203131009675</v>
       </c>
       <c r="H1676">
-        <v>207.4550528044269</v>
+        <v>392.7712713464017</v>
       </c>
       <c r="I1676">
-        <v>253.6318783410166</v>
+        <v>664.9416621954078</v>
       </c>
       <c r="J1676">
-        <v>205.0212172920725</v>
+        <v>582.9899358764485</v>
       </c>
       <c r="K1676">
-        <v>234.1167131303633</v>
+        <v>564.7115333147233</v>
       </c>
       <c r="L1676">
-        <v>210.6687098021953</v>
+        <v>592.9715005835308</v>
       </c>
       <c r="M1676">
-        <v>216.0517457601637</v>
+        <v>703.7324628068899</v>
       </c>
       <c r="N1676" t="s">
         <v>39</v>
@@ -78378,48 +80286,48 @@
         <v>44</v>
       </c>
       <c r="P1676" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1677" spans="1:16">
       <c r="A1677" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1677">
-        <v>557.2305245517628</v>
+        <v>400.1711802229759</v>
       </c>
       <c r="C1677">
-        <v>441.7084241927188</v>
+        <v>373.8019545852675</v>
       </c>
       <c r="D1677">
-        <v>587.2830020977816</v>
+        <v>566.7509934315345</v>
       </c>
       <c r="E1677">
-        <v>441.2345041450551</v>
+        <v>418.949026922587</v>
       </c>
       <c r="F1677">
-        <v>504.3278867917527</v>
+        <v>483.2547649484952</v>
       </c>
       <c r="G1677">
-        <v>429.4740569638287</v>
+        <v>499.5933059208543</v>
       </c>
       <c r="H1677">
-        <v>546.3424758895566</v>
+        <v>516.376954784776</v>
       </c>
       <c r="I1677">
-        <v>718.4086354899001</v>
+        <v>617.0674847364365</v>
       </c>
       <c r="J1677">
-        <v>893.9075458647103</v>
+        <v>663.9331295557776</v>
       </c>
       <c r="K1677">
-        <v>1208.083872839595</v>
+        <v>621.6879740780118</v>
       </c>
       <c r="L1677">
-        <v>822.1310712153957</v>
+        <v>499.8640791885115</v>
       </c>
       <c r="M1677">
-        <v>4618.275264681583</v>
+        <v>558.6985295935916</v>
       </c>
       <c r="N1677" t="s">
         <v>39</v>
@@ -78428,48 +80336,48 @@
         <v>44</v>
       </c>
       <c r="P1677" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1678" spans="1:16">
       <c r="A1678" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1678">
-        <v>406.9760463635807</v>
+        <v>239.8124775397049</v>
       </c>
       <c r="C1678">
-        <v>296.968536329336</v>
+        <v>251.6557204546965</v>
       </c>
       <c r="D1678">
-        <v>456.8725630750623</v>
+        <v>340.0662072964775</v>
       </c>
       <c r="E1678">
-        <v>428.453610063387</v>
+        <v>318.5625112099644</v>
       </c>
       <c r="F1678">
-        <v>456.325403286445</v>
+        <v>368.3583484569949</v>
       </c>
       <c r="G1678">
-        <v>659.0203131009675</v>
+        <v>396.9093805616067</v>
       </c>
       <c r="H1678">
-        <v>392.7712713464017</v>
+        <v>427.7935573143386</v>
       </c>
       <c r="I1678">
-        <v>664.9416621954078</v>
+        <v>561.4814809609692</v>
       </c>
       <c r="J1678">
-        <v>582.9899358764485</v>
+        <v>524.5493493643261</v>
       </c>
       <c r="K1678">
-        <v>564.7115333147233</v>
+        <v>704.8004864144885</v>
       </c>
       <c r="L1678">
-        <v>592.9715005835308</v>
+        <v>828.2656046232009</v>
       </c>
       <c r="M1678">
-        <v>703.7324628068899</v>
+        <v>477.9528104006932</v>
       </c>
       <c r="N1678" t="s">
         <v>39</v>
@@ -78478,48 +80386,48 @@
         <v>44</v>
       </c>
       <c r="P1678" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1679" spans="1:16">
       <c r="A1679" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1679">
-        <v>400.1711802229759</v>
+        <v>163.3533260883422</v>
       </c>
       <c r="C1679">
-        <v>373.8019545852675</v>
+        <v>176.5401908262707</v>
       </c>
       <c r="D1679">
-        <v>566.7509934315345</v>
+        <v>279.2083770142673</v>
       </c>
       <c r="E1679">
-        <v>418.949026922587</v>
+        <v>203.2195267432936</v>
       </c>
       <c r="F1679">
-        <v>483.2547649484952</v>
+        <v>229.7215492645636</v>
       </c>
       <c r="G1679">
-        <v>499.5933059208543</v>
+        <v>261.0804896730378</v>
       </c>
       <c r="H1679">
-        <v>516.376954784776</v>
+        <v>258.1808750880554</v>
       </c>
       <c r="I1679">
-        <v>617.0674847364365</v>
+        <v>317.2273220926291</v>
       </c>
       <c r="J1679">
-        <v>663.9331295557776</v>
+        <v>298.5580740187878</v>
       </c>
       <c r="K1679">
-        <v>621.6879740780118</v>
+        <v>293.1600355545691</v>
       </c>
       <c r="L1679">
-        <v>499.8640791885115</v>
+        <v>251.6933899077258</v>
       </c>
       <c r="M1679">
-        <v>558.6985295935916</v>
+        <v>252.1571961750096</v>
       </c>
       <c r="N1679" t="s">
         <v>39</v>
@@ -78528,48 +80436,48 @@
         <v>44</v>
       </c>
       <c r="P1679" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1680" spans="1:16">
       <c r="A1680" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1680">
-        <v>239.8124775397049</v>
+        <v>430.6756166877752</v>
       </c>
       <c r="C1680">
-        <v>251.6557204546965</v>
+        <v>494.3480975348106</v>
       </c>
       <c r="D1680">
-        <v>340.0662072964775</v>
+        <v>466.632073968064</v>
       </c>
       <c r="E1680">
-        <v>318.5625112099644</v>
+        <v>436.9760901489407</v>
       </c>
       <c r="F1680">
-        <v>368.3583484569949</v>
+        <v>546.1898318130028</v>
       </c>
       <c r="G1680">
-        <v>396.9093805616067</v>
+        <v>509.308969297817</v>
       </c>
       <c r="H1680">
-        <v>427.7935573143386</v>
+        <v>587.5019951176359</v>
       </c>
       <c r="I1680">
-        <v>561.4814809609692</v>
+        <v>555.7262571787876</v>
       </c>
       <c r="J1680">
-        <v>524.5493493643261</v>
+        <v>583.3912943875067</v>
       </c>
       <c r="K1680">
-        <v>704.8004864144885</v>
+        <v>531.3481423497708</v>
       </c>
       <c r="L1680">
-        <v>828.2656046232009</v>
+        <v>313.7736708642005</v>
       </c>
       <c r="M1680">
-        <v>477.9528104006932</v>
+        <v>957.0861977763398</v>
       </c>
       <c r="N1680" t="s">
         <v>39</v>
@@ -78578,48 +80486,48 @@
         <v>44</v>
       </c>
       <c r="P1680" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1681" spans="1:16">
       <c r="A1681" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1681">
-        <v>163.3533260883422</v>
+        <v>396.7374223712674</v>
       </c>
       <c r="C1681">
-        <v>176.5401908262707</v>
+        <v>373.5230153329262</v>
       </c>
       <c r="D1681">
-        <v>279.2083770142673</v>
+        <v>735.805087970706</v>
       </c>
       <c r="E1681">
-        <v>203.2195267432936</v>
+        <v>509.8888309631631</v>
       </c>
       <c r="F1681">
-        <v>229.7215492645636</v>
+        <v>619.6397543967806</v>
       </c>
       <c r="G1681">
-        <v>261.0804896730378</v>
+        <v>725.6299168896446</v>
       </c>
       <c r="H1681">
-        <v>258.1808750880554</v>
+        <v>697.6508005931507</v>
       </c>
       <c r="I1681">
-        <v>317.2273220926291</v>
+        <v>816.5146625892385</v>
       </c>
       <c r="J1681">
-        <v>298.5580740187878</v>
+        <v>639.5362230734747</v>
       </c>
       <c r="K1681">
-        <v>293.1600355545691</v>
+        <v>784.8188181686164</v>
       </c>
       <c r="L1681">
-        <v>251.6933899077258</v>
+        <v>689.1008445474788</v>
       </c>
       <c r="M1681">
-        <v>252.1571961750096</v>
+        <v>717.7046653572625</v>
       </c>
       <c r="N1681" t="s">
         <v>39</v>
@@ -78628,106 +80536,6 @@
         <v>44</v>
       </c>
       <c r="P1681" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:16">
-      <c r="A1682" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1682">
-        <v>430.6756166877752</v>
-      </c>
-      <c r="C1682">
-        <v>494.3480975348106</v>
-      </c>
-      <c r="D1682">
-        <v>466.632073968064</v>
-      </c>
-      <c r="E1682">
-        <v>436.9760901489407</v>
-      </c>
-      <c r="F1682">
-        <v>546.1898318130028</v>
-      </c>
-      <c r="G1682">
-        <v>509.308969297817</v>
-      </c>
-      <c r="H1682">
-        <v>587.5019951176359</v>
-      </c>
-      <c r="I1682">
-        <v>555.7262571787876</v>
-      </c>
-      <c r="J1682">
-        <v>583.3912943875067</v>
-      </c>
-      <c r="K1682">
-        <v>531.3481423497708</v>
-      </c>
-      <c r="L1682">
-        <v>313.7736708642005</v>
-      </c>
-      <c r="M1682">
-        <v>957.0861977763398</v>
-      </c>
-      <c r="N1682" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1682" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1682" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:16">
-      <c r="A1683" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1683">
-        <v>396.7374223712674</v>
-      </c>
-      <c r="C1683">
-        <v>373.5230153329262</v>
-      </c>
-      <c r="D1683">
-        <v>735.805087970706</v>
-      </c>
-      <c r="E1683">
-        <v>509.8888309631631</v>
-      </c>
-      <c r="F1683">
-        <v>619.6397543967806</v>
-      </c>
-      <c r="G1683">
-        <v>725.6299168896446</v>
-      </c>
-      <c r="H1683">
-        <v>697.6508005931507</v>
-      </c>
-      <c r="I1683">
-        <v>816.5146625892385</v>
-      </c>
-      <c r="J1683">
-        <v>639.5362230734747</v>
-      </c>
-      <c r="K1683">
-        <v>784.8188181686164</v>
-      </c>
-      <c r="L1683">
-        <v>689.1008445474788</v>
-      </c>
-      <c r="M1683">
-        <v>717.7046653572625</v>
-      </c>
-      <c r="N1683" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1683" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1683" t="s">
         <v>19</v>
       </c>
     </row>
